--- a/4a_25-25.xlsx
+++ b/4a_25-25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msevgob-my.sharepoint.com/personal/elpidio_mendez_msev_gob_mx/Documents/Documents/Mendez1/JTB_2025-2025/lista editada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iscmd\OneDrive - Secretaría de Educación de Veracruz\Documents\Mendez1\JTB_2025-2025\lista editada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{B1414C30-2805-4816-8A8D-0063A79BCFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DCB1AE2-0081-4925-A0DF-2ED92376B78A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C0DAF-9543-433B-99B5-78E7EDC57618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1811,6 +1811,15 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1818,15 +1827,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3568,10 +3568,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3886,88 +3882,88 @@
       <c r="A2" s="50">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="L2" s="123" t="s">
+      <c r="L2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="M2" s="123" t="s">
+      <c r="M2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="123" t="s">
+      <c r="N2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="123" t="s">
+      <c r="O2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="P2" s="123" t="s">
+      <c r="P2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="123" t="s">
+      <c r="Q2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="123" t="s">
+      <c r="R2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="123" t="s">
+      <c r="S2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="123" t="s">
+      <c r="T2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="U2" s="123" t="s">
+      <c r="U2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="V2" s="123" t="s">
+      <c r="V2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="W2" s="123" t="s">
+      <c r="W2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="123" t="s">
+      <c r="X2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="Y2" s="123" t="s">
+      <c r="Y2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="Z2" s="123" t="s">
+      <c r="Z2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="AA2" s="123" t="s">
+      <c r="AA2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="AB2" s="123" t="s">
+      <c r="AB2" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="AC2" s="124" t="s">
+      <c r="AC2" s="127" t="s">
         <v>151</v>
       </c>
       <c r="AD2">
@@ -3982,88 +3978,88 @@
       <c r="A3" s="50">
         <v>2</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="126" t="s">
+      <c r="J3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="126" t="s">
+      <c r="L3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="126" t="s">
+      <c r="M3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="N3" s="126" t="s">
+      <c r="N3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="O3" s="126" t="s">
+      <c r="O3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="P3" s="126" t="s">
+      <c r="P3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="126" t="s">
+      <c r="Q3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="R3" s="126" t="s">
+      <c r="R3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="126" t="s">
+      <c r="S3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="T3" s="126" t="s">
+      <c r="T3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="U3" s="126" t="s">
+      <c r="U3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="V3" s="126" t="s">
+      <c r="V3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="W3" s="126" t="s">
+      <c r="W3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="X3" s="126" t="s">
+      <c r="X3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="Y3" s="126" t="s">
+      <c r="Y3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="Z3" s="126" t="s">
+      <c r="Z3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="AA3" s="126" t="s">
+      <c r="AA3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="AB3" s="126" t="s">
+      <c r="AB3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="AC3" s="127" t="s">
+      <c r="AC3" s="124" t="s">
         <v>153</v>
       </c>
       <c r="AD3">
@@ -4075,88 +4071,88 @@
       <c r="A4" s="50">
         <v>3</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="123" t="s">
+      <c r="G4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="123" t="s">
+      <c r="M4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="N4" s="123" t="s">
+      <c r="N4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="O4" s="123" t="s">
+      <c r="O4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="P4" s="123" t="s">
+      <c r="P4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="Q4" s="123" t="s">
+      <c r="Q4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="R4" s="123" t="s">
+      <c r="R4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="S4" s="123" t="s">
+      <c r="S4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="T4" s="123" t="s">
+      <c r="T4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="V4" s="123" t="s">
+      <c r="V4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="W4" s="123" t="s">
+      <c r="W4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="X4" s="123" t="s">
+      <c r="X4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="Y4" s="123" t="s">
+      <c r="Y4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="Z4" s="123" t="s">
+      <c r="Z4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="AA4" s="123" t="s">
+      <c r="AA4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="AB4" s="123" t="s">
+      <c r="AB4" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="AC4" s="124" t="s">
+      <c r="AC4" s="127" t="s">
         <v>155</v>
       </c>
       <c r="AD4">
@@ -4168,88 +4164,88 @@
       <c r="A5" s="50">
         <v>4</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="126" t="s">
+      <c r="I5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="126" t="s">
+      <c r="J5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="126" t="s">
+      <c r="K5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="L5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="126" t="s">
+      <c r="M5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="N5" s="126" t="s">
+      <c r="N5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="O5" s="126" t="s">
+      <c r="O5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="P5" s="126" t="s">
+      <c r="P5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" s="126" t="s">
+      <c r="Q5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="R5" s="126" t="s">
+      <c r="R5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="S5" s="126" t="s">
+      <c r="S5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="T5" s="126" t="s">
+      <c r="T5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="U5" s="126" t="s">
+      <c r="U5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="V5" s="126" t="s">
+      <c r="V5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="W5" s="126" t="s">
+      <c r="W5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="126" t="s">
+      <c r="X5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="Y5" s="126" t="s">
+      <c r="Y5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="Z5" s="126" t="s">
+      <c r="Z5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="AA5" s="126" t="s">
+      <c r="AA5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="AB5" s="126" t="s">
+      <c r="AB5" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="AC5" s="127" t="s">
+      <c r="AC5" s="124" t="s">
         <v>157</v>
       </c>
       <c r="AD5">
@@ -4261,88 +4257,88 @@
       <c r="A6" s="50">
         <v>5</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="I6" s="123" t="s">
+      <c r="I6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="N6" s="123" t="s">
+      <c r="N6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="123" t="s">
+      <c r="O6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="123" t="s">
+      <c r="Q6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="123" t="s">
+      <c r="R6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="S6" s="123" t="s">
+      <c r="S6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="T6" s="123" t="s">
+      <c r="T6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="U6" s="123" t="s">
+      <c r="U6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="V6" s="123" t="s">
+      <c r="V6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="W6" s="123" t="s">
+      <c r="W6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="X6" s="123" t="s">
+      <c r="X6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="Y6" s="123" t="s">
+      <c r="Y6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="Z6" s="123" t="s">
+      <c r="Z6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AA6" s="123" t="s">
+      <c r="AA6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AB6" s="123" t="s">
+      <c r="AB6" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AC6" s="124" t="s">
+      <c r="AC6" s="127" t="s">
         <v>159</v>
       </c>
       <c r="AD6">
@@ -4354,88 +4350,88 @@
       <c r="A7" s="50">
         <v>6</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="126" t="s">
+      <c r="G7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="126" t="s">
+      <c r="H7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="126" t="s">
+      <c r="I7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="126" t="s">
+      <c r="J7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="126" t="s">
+      <c r="K7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="M7" s="126" t="s">
+      <c r="M7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="N7" s="126" t="s">
+      <c r="N7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="O7" s="126" t="s">
+      <c r="O7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="P7" s="126" t="s">
+      <c r="P7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="126" t="s">
+      <c r="Q7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="R7" s="126" t="s">
+      <c r="R7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="S7" s="126" t="s">
+      <c r="S7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="T7" s="126" t="s">
+      <c r="T7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="U7" s="126" t="s">
+      <c r="U7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="V7" s="126" t="s">
+      <c r="V7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="W7" s="126" t="s">
+      <c r="W7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="X7" s="126" t="s">
+      <c r="X7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="126" t="s">
+      <c r="Y7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="Z7" s="126" t="s">
+      <c r="Z7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="AA7" s="126" t="s">
+      <c r="AA7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="AB7" s="126" t="s">
+      <c r="AB7" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="AC7" s="127" t="s">
+      <c r="AC7" s="124" t="s">
         <v>161</v>
       </c>
       <c r="AD7">
@@ -4447,88 +4443,88 @@
       <c r="A8" s="50">
         <v>7</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="123" t="s">
+      <c r="J8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="K8" s="123" t="s">
+      <c r="K8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="L8" s="123" t="s">
+      <c r="L8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="M8" s="123" t="s">
+      <c r="M8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="123" t="s">
+      <c r="N8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="O8" s="123" t="s">
+      <c r="O8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="P8" s="123" t="s">
+      <c r="P8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="Q8" s="123" t="s">
+      <c r="Q8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="R8" s="123" t="s">
+      <c r="R8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="S8" s="123" t="s">
+      <c r="S8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="T8" s="123" t="s">
+      <c r="T8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="U8" s="123" t="s">
+      <c r="U8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="V8" s="123" t="s">
+      <c r="V8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="W8" s="123" t="s">
+      <c r="W8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="X8" s="123" t="s">
+      <c r="X8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="123" t="s">
+      <c r="Y8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="Z8" s="123" t="s">
+      <c r="Z8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="AA8" s="123" t="s">
+      <c r="AA8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="AB8" s="123" t="s">
+      <c r="AB8" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="AC8" s="124" t="s">
+      <c r="AC8" s="127" t="s">
         <v>163</v>
       </c>
       <c r="AD8">
@@ -4540,88 +4536,88 @@
       <c r="A9" s="50">
         <v>8</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="126" t="s">
+      <c r="H9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="126" t="s">
+      <c r="J9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="126" t="s">
+      <c r="K9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="L9" s="126" t="s">
+      <c r="L9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="126" t="s">
+      <c r="M9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="126" t="s">
+      <c r="N9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="O9" s="126" t="s">
+      <c r="O9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="P9" s="126" t="s">
+      <c r="P9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="Q9" s="126" t="s">
+      <c r="Q9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="R9" s="126" t="s">
+      <c r="R9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="S9" s="126" t="s">
+      <c r="S9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="T9" s="126" t="s">
+      <c r="T9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="U9" s="126" t="s">
+      <c r="U9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="V9" s="126" t="s">
+      <c r="V9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="W9" s="126" t="s">
+      <c r="W9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="X9" s="126" t="s">
+      <c r="X9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="Y9" s="126" t="s">
+      <c r="Y9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="Z9" s="126" t="s">
+      <c r="Z9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="AA9" s="126" t="s">
+      <c r="AA9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="AB9" s="126" t="s">
+      <c r="AB9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="AC9" s="127" t="s">
+      <c r="AC9" s="124" t="s">
         <v>165</v>
       </c>
       <c r="AD9">
@@ -4633,88 +4629,88 @@
       <c r="A10" s="50">
         <v>9</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="123" t="s">
+      <c r="H10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="123" t="s">
+      <c r="J10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="123" t="s">
+      <c r="K10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="L10" s="123" t="s">
+      <c r="L10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="123" t="s">
+      <c r="M10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="123" t="s">
+      <c r="N10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="O10" s="123" t="s">
+      <c r="O10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="P10" s="123" t="s">
+      <c r="P10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="123" t="s">
+      <c r="Q10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="R10" s="123" t="s">
+      <c r="R10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="S10" s="123" t="s">
+      <c r="S10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="T10" s="123" t="s">
+      <c r="T10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="U10" s="123" t="s">
+      <c r="U10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="V10" s="123" t="s">
+      <c r="V10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="W10" s="123" t="s">
+      <c r="W10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="X10" s="123" t="s">
+      <c r="X10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="Y10" s="123" t="s">
+      <c r="Y10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="Z10" s="123" t="s">
+      <c r="Z10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AA10" s="123" t="s">
+      <c r="AA10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AB10" s="123" t="s">
+      <c r="AB10" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AC10" s="124" t="s">
+      <c r="AC10" s="127" t="s">
         <v>167</v>
       </c>
       <c r="AD10">
@@ -4726,88 +4722,88 @@
       <c r="A11" s="50">
         <v>10</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="126" t="s">
+      <c r="H11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="126" t="s">
+      <c r="I11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="126" t="s">
+      <c r="J11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="K11" s="126" t="s">
+      <c r="K11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="L11" s="126" t="s">
+      <c r="L11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="M11" s="126" t="s">
+      <c r="M11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="126" t="s">
+      <c r="N11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="O11" s="126" t="s">
+      <c r="O11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="P11" s="126" t="s">
+      <c r="P11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="Q11" s="126" t="s">
+      <c r="Q11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="R11" s="126" t="s">
+      <c r="R11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="S11" s="126" t="s">
+      <c r="S11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="T11" s="126" t="s">
+      <c r="T11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="U11" s="126" t="s">
+      <c r="U11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="V11" s="126" t="s">
+      <c r="V11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="W11" s="126" t="s">
+      <c r="W11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="X11" s="126" t="s">
+      <c r="X11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="Y11" s="126" t="s">
+      <c r="Y11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="Z11" s="126" t="s">
+      <c r="Z11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="AA11" s="126" t="s">
+      <c r="AA11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="AB11" s="126" t="s">
+      <c r="AB11" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="AC11" s="127" t="s">
+      <c r="AC11" s="124" t="s">
         <v>169</v>
       </c>
       <c r="AD11">
@@ -4819,88 +4815,88 @@
       <c r="A12" s="50">
         <v>11</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="123" t="s">
+      <c r="G12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="H12" s="123" t="s">
+      <c r="H12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="L12" s="123" t="s">
+      <c r="L12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="N12" s="123" t="s">
+      <c r="N12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="O12" s="123" t="s">
+      <c r="O12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="P12" s="123" t="s">
+      <c r="P12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="Q12" s="123" t="s">
+      <c r="Q12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="R12" s="123" t="s">
+      <c r="R12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="S12" s="123" t="s">
+      <c r="S12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="T12" s="123" t="s">
+      <c r="T12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="U12" s="123" t="s">
+      <c r="U12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="V12" s="123" t="s">
+      <c r="V12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="W12" s="123" t="s">
+      <c r="W12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="X12" s="123" t="s">
+      <c r="X12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="Y12" s="123" t="s">
+      <c r="Y12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="Z12" s="123" t="s">
+      <c r="Z12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="AA12" s="123" t="s">
+      <c r="AA12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="AB12" s="123" t="s">
+      <c r="AB12" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="AC12" s="124" t="s">
+      <c r="AC12" s="127" t="s">
         <v>171</v>
       </c>
       <c r="AD12">
@@ -4912,88 +4908,88 @@
       <c r="A13" s="50">
         <v>12</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="I13" s="126" t="s">
+      <c r="I13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="J13" s="126" t="s">
+      <c r="J13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="126" t="s">
+      <c r="K13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="126" t="s">
+      <c r="L13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="M13" s="126" t="s">
+      <c r="M13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="N13" s="126" t="s">
+      <c r="N13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="O13" s="126" t="s">
+      <c r="O13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="P13" s="126" t="s">
+      <c r="P13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="Q13" s="126" t="s">
+      <c r="Q13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="R13" s="126" t="s">
+      <c r="R13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="S13" s="126" t="s">
+      <c r="S13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="T13" s="126" t="s">
+      <c r="T13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="U13" s="126" t="s">
+      <c r="U13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="V13" s="126" t="s">
+      <c r="V13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="W13" s="126" t="s">
+      <c r="W13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="X13" s="126" t="s">
+      <c r="X13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="Y13" s="126" t="s">
+      <c r="Y13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="Z13" s="126" t="s">
+      <c r="Z13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="AA13" s="126" t="s">
+      <c r="AA13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="AB13" s="126" t="s">
+      <c r="AB13" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="AC13" s="127" t="s">
+      <c r="AC13" s="124" t="s">
         <v>173</v>
       </c>
       <c r="AD13">
@@ -5005,88 +5001,88 @@
       <c r="A14" s="50">
         <v>13</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="123" t="s">
+      <c r="F14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="123" t="s">
+      <c r="G14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="H14" s="123" t="s">
+      <c r="H14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="123" t="s">
+      <c r="I14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="123" t="s">
+      <c r="J14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="123" t="s">
+      <c r="K14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="L14" s="123" t="s">
+      <c r="L14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="123" t="s">
+      <c r="M14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="N14" s="123" t="s">
+      <c r="N14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="O14" s="123" t="s">
+      <c r="O14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="P14" s="123" t="s">
+      <c r="P14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="Q14" s="123" t="s">
+      <c r="Q14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="R14" s="123" t="s">
+      <c r="R14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="S14" s="123" t="s">
+      <c r="S14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="T14" s="123" t="s">
+      <c r="T14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="U14" s="123" t="s">
+      <c r="U14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="V14" s="123" t="s">
+      <c r="V14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="W14" s="123" t="s">
+      <c r="W14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="X14" s="123" t="s">
+      <c r="X14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="Y14" s="123" t="s">
+      <c r="Y14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="Z14" s="123" t="s">
+      <c r="Z14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="AA14" s="123" t="s">
+      <c r="AA14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="AB14" s="123" t="s">
+      <c r="AB14" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="AC14" s="124" t="s">
+      <c r="AC14" s="127" t="s">
         <v>175</v>
       </c>
       <c r="AD14">
@@ -5098,88 +5094,88 @@
       <c r="A15" s="50">
         <v>14</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="126" t="s">
+      <c r="G15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="I15" s="126" t="s">
+      <c r="I15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="J15" s="126" t="s">
+      <c r="J15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="K15" s="126" t="s">
+      <c r="K15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="L15" s="126" t="s">
+      <c r="L15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="M15" s="126" t="s">
+      <c r="M15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="N15" s="126" t="s">
+      <c r="N15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="O15" s="126" t="s">
+      <c r="O15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="126" t="s">
+      <c r="P15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="Q15" s="126" t="s">
+      <c r="Q15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="R15" s="126" t="s">
+      <c r="R15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="S15" s="126" t="s">
+      <c r="S15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="T15" s="126" t="s">
+      <c r="T15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="U15" s="126" t="s">
+      <c r="U15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="V15" s="126" t="s">
+      <c r="V15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="W15" s="126" t="s">
+      <c r="W15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="X15" s="126" t="s">
+      <c r="X15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="Y15" s="126" t="s">
+      <c r="Y15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="Z15" s="126" t="s">
+      <c r="Z15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="AA15" s="126" t="s">
+      <c r="AA15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="AB15" s="126" t="s">
+      <c r="AB15" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="AC15" s="127" t="s">
+      <c r="AC15" s="124" t="s">
         <v>177</v>
       </c>
       <c r="AD15">
@@ -5191,88 +5187,88 @@
       <c r="A16" s="50">
         <v>15</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="123" t="s">
+      <c r="G16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="123" t="s">
+      <c r="H16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="123" t="s">
+      <c r="I16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="J16" s="123" t="s">
+      <c r="J16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="123" t="s">
+      <c r="K16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="L16" s="123" t="s">
+      <c r="L16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="M16" s="123" t="s">
+      <c r="M16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="N16" s="123" t="s">
+      <c r="N16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="O16" s="123" t="s">
+      <c r="O16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="P16" s="123" t="s">
+      <c r="P16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="Q16" s="123" t="s">
+      <c r="Q16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="123" t="s">
+      <c r="R16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="S16" s="123" t="s">
+      <c r="S16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="123" t="s">
+      <c r="T16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="U16" s="123" t="s">
+      <c r="U16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="V16" s="123" t="s">
+      <c r="V16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="W16" s="123" t="s">
+      <c r="W16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="X16" s="123" t="s">
+      <c r="X16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="Y16" s="123" t="s">
+      <c r="Y16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="Z16" s="123" t="s">
+      <c r="Z16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="AA16" s="123" t="s">
+      <c r="AA16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="AB16" s="123" t="s">
+      <c r="AB16" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="AC16" s="124" t="s">
+      <c r="AC16" s="127" t="s">
         <v>179</v>
       </c>
       <c r="AD16">
@@ -5284,88 +5280,88 @@
       <c r="A17" s="50">
         <v>16</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="126" t="s">
+      <c r="F17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="126" t="s">
+      <c r="G17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="I17" s="126" t="s">
+      <c r="I17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="126" t="s">
+      <c r="J17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="K17" s="126" t="s">
+      <c r="K17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="L17" s="126" t="s">
+      <c r="L17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="M17" s="126" t="s">
+      <c r="M17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="N17" s="126" t="s">
+      <c r="N17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="O17" s="126" t="s">
+      <c r="O17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="P17" s="126" t="s">
+      <c r="P17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="Q17" s="126" t="s">
+      <c r="Q17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="R17" s="126" t="s">
+      <c r="R17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="S17" s="126" t="s">
+      <c r="S17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="T17" s="126" t="s">
+      <c r="T17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="U17" s="126" t="s">
+      <c r="U17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="V17" s="126" t="s">
+      <c r="V17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="W17" s="126" t="s">
+      <c r="W17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="X17" s="126" t="s">
+      <c r="X17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="Y17" s="126" t="s">
+      <c r="Y17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="Z17" s="126" t="s">
+      <c r="Z17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="AA17" s="126" t="s">
+      <c r="AA17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="AB17" s="126" t="s">
+      <c r="AB17" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="AC17" s="127" t="s">
+      <c r="AC17" s="124" t="s">
         <v>181</v>
       </c>
       <c r="AD17">
@@ -5377,88 +5373,88 @@
       <c r="A18" s="50">
         <v>17</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="I18" s="123" t="s">
+      <c r="I18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="J18" s="123" t="s">
+      <c r="J18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="123" t="s">
+      <c r="K18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="123" t="s">
+      <c r="L18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="N18" s="123" t="s">
+      <c r="N18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="O18" s="123" t="s">
+      <c r="O18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="P18" s="123" t="s">
+      <c r="P18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="Q18" s="123" t="s">
+      <c r="Q18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="123" t="s">
+      <c r="R18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="123" t="s">
+      <c r="S18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="T18" s="123" t="s">
+      <c r="T18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="U18" s="123" t="s">
+      <c r="U18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="V18" s="123" t="s">
+      <c r="V18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="W18" s="123" t="s">
+      <c r="W18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="X18" s="123" t="s">
+      <c r="X18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="Y18" s="123" t="s">
+      <c r="Y18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="Z18" s="123" t="s">
+      <c r="Z18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="AA18" s="123" t="s">
+      <c r="AA18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="AB18" s="123" t="s">
+      <c r="AB18" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="AC18" s="124" t="s">
+      <c r="AC18" s="127" t="s">
         <v>183</v>
       </c>
       <c r="AD18">
@@ -5470,88 +5466,88 @@
       <c r="A19" s="50">
         <v>18</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="126" t="s">
+      <c r="E19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="126" t="s">
+      <c r="I19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="126" t="s">
+      <c r="J19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="K19" s="126" t="s">
+      <c r="K19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="L19" s="126" t="s">
+      <c r="L19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="M19" s="126" t="s">
+      <c r="M19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="N19" s="126" t="s">
+      <c r="N19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="O19" s="126" t="s">
+      <c r="O19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="P19" s="126" t="s">
+      <c r="P19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="Q19" s="126" t="s">
+      <c r="Q19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="R19" s="126" t="s">
+      <c r="R19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="S19" s="126" t="s">
+      <c r="S19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="T19" s="126" t="s">
+      <c r="T19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="U19" s="126" t="s">
+      <c r="U19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="V19" s="126" t="s">
+      <c r="V19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="W19" s="126" t="s">
+      <c r="W19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="X19" s="126" t="s">
+      <c r="X19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="Y19" s="126" t="s">
+      <c r="Y19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="Z19" s="126" t="s">
+      <c r="Z19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="AA19" s="126" t="s">
+      <c r="AA19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="AB19" s="126" t="s">
+      <c r="AB19" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="AC19" s="127" t="s">
+      <c r="AC19" s="124" t="s">
         <v>185</v>
       </c>
       <c r="AD19">
@@ -5563,88 +5559,88 @@
       <c r="A20" s="50">
         <v>19</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="123" t="s">
+      <c r="D20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="123" t="s">
+      <c r="E20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="123" t="s">
+      <c r="H20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="123" t="s">
+      <c r="I20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="J20" s="123" t="s">
+      <c r="J20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="123" t="s">
+      <c r="K20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="N20" s="123" t="s">
+      <c r="N20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="O20" s="123" t="s">
+      <c r="O20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="P20" s="123" t="s">
+      <c r="P20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="Q20" s="123" t="s">
+      <c r="Q20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="R20" s="123" t="s">
+      <c r="R20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="S20" s="123" t="s">
+      <c r="S20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="123" t="s">
+      <c r="T20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="U20" s="123" t="s">
+      <c r="U20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="V20" s="123" t="s">
+      <c r="V20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="W20" s="123" t="s">
+      <c r="W20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="X20" s="123" t="s">
+      <c r="X20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="Y20" s="123" t="s">
+      <c r="Y20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="Z20" s="123" t="s">
+      <c r="Z20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="AA20" s="123" t="s">
+      <c r="AA20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="AB20" s="123" t="s">
+      <c r="AB20" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="AC20" s="124" t="s">
+      <c r="AC20" s="127" t="s">
         <v>187</v>
       </c>
       <c r="AD20">
@@ -5656,88 +5652,88 @@
       <c r="A21" s="50">
         <v>20</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="126" t="s">
+      <c r="E21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="G21" s="126" t="s">
+      <c r="G21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="126" t="s">
+      <c r="H21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="I21" s="126" t="s">
+      <c r="I21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="J21" s="126" t="s">
+      <c r="J21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="K21" s="126" t="s">
+      <c r="K21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="L21" s="126" t="s">
+      <c r="L21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="126" t="s">
+      <c r="M21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="N21" s="126" t="s">
+      <c r="N21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="O21" s="126" t="s">
+      <c r="O21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="P21" s="126" t="s">
+      <c r="P21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="Q21" s="126" t="s">
+      <c r="Q21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="R21" s="126" t="s">
+      <c r="R21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="S21" s="126" t="s">
+      <c r="S21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="T21" s="126" t="s">
+      <c r="T21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="U21" s="126" t="s">
+      <c r="U21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="V21" s="126" t="s">
+      <c r="V21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="W21" s="126" t="s">
+      <c r="W21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="X21" s="126" t="s">
+      <c r="X21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="Y21" s="126" t="s">
+      <c r="Y21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="Z21" s="126" t="s">
+      <c r="Z21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="AA21" s="126" t="s">
+      <c r="AA21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="AB21" s="126" t="s">
+      <c r="AB21" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="AC21" s="127" t="s">
+      <c r="AC21" s="124" t="s">
         <v>189</v>
       </c>
       <c r="AD21">
@@ -5749,88 +5745,88 @@
       <c r="A22" s="50">
         <v>21</v>
       </c>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="123" t="s">
+      <c r="D22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="123" t="s">
+      <c r="E22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="123" t="s">
+      <c r="F22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="123" t="s">
+      <c r="G22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="123" t="s">
+      <c r="H22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="123" t="s">
+      <c r="I22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="123" t="s">
+      <c r="J22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="123" t="s">
+      <c r="K22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="L22" s="123" t="s">
+      <c r="L22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="M22" s="123" t="s">
+      <c r="M22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="N22" s="123" t="s">
+      <c r="N22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="O22" s="123" t="s">
+      <c r="O22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="P22" s="123" t="s">
+      <c r="P22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="Q22" s="123" t="s">
+      <c r="Q22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="R22" s="123" t="s">
+      <c r="R22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="S22" s="123" t="s">
+      <c r="S22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="T22" s="123" t="s">
+      <c r="T22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="U22" s="123" t="s">
+      <c r="U22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="V22" s="123" t="s">
+      <c r="V22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="W22" s="123" t="s">
+      <c r="W22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="X22" s="123" t="s">
+      <c r="X22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="Y22" s="123" t="s">
+      <c r="Y22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="Z22" s="123" t="s">
+      <c r="Z22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="AA22" s="123" t="s">
+      <c r="AA22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="AB22" s="123" t="s">
+      <c r="AB22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="AC22" s="124" t="s">
+      <c r="AC22" s="127" t="s">
         <v>191</v>
       </c>
       <c r="AD22">
@@ -5842,88 +5838,88 @@
       <c r="A23" s="50">
         <v>22</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="126" t="s">
+      <c r="E23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="126" t="s">
+      <c r="F23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="126" t="s">
+      <c r="G23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="H23" s="126" t="s">
+      <c r="H23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="I23" s="126" t="s">
+      <c r="I23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="J23" s="126" t="s">
+      <c r="J23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="K23" s="126" t="s">
+      <c r="K23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="L23" s="126" t="s">
+      <c r="L23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="126" t="s">
+      <c r="M23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="N23" s="126" t="s">
+      <c r="N23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="126" t="s">
+      <c r="O23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="126" t="s">
+      <c r="P23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="Q23" s="126" t="s">
+      <c r="Q23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="R23" s="126" t="s">
+      <c r="R23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="S23" s="126" t="s">
+      <c r="S23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="126" t="s">
+      <c r="T23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="U23" s="126" t="s">
+      <c r="U23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="V23" s="126" t="s">
+      <c r="V23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="W23" s="126" t="s">
+      <c r="W23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="X23" s="126" t="s">
+      <c r="X23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="Y23" s="126" t="s">
+      <c r="Y23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="Z23" s="126" t="s">
+      <c r="Z23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="AA23" s="126" t="s">
+      <c r="AA23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="AB23" s="126" t="s">
+      <c r="AB23" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="AC23" s="127" t="s">
+      <c r="AC23" s="124" t="s">
         <v>193</v>
       </c>
       <c r="AD23">
@@ -5935,88 +5931,88 @@
       <c r="A24" s="50">
         <v>23</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="123" t="s">
+      <c r="E24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="123" t="s">
+      <c r="F24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="G24" s="123" t="s">
+      <c r="G24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="H24" s="123" t="s">
+      <c r="H24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="I24" s="123" t="s">
+      <c r="I24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="J24" s="123" t="s">
+      <c r="J24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="K24" s="123" t="s">
+      <c r="K24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="L24" s="123" t="s">
+      <c r="L24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="M24" s="123" t="s">
+      <c r="M24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="N24" s="123" t="s">
+      <c r="N24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="O24" s="123" t="s">
+      <c r="O24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="P24" s="123" t="s">
+      <c r="P24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="Q24" s="123" t="s">
+      <c r="Q24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="R24" s="123" t="s">
+      <c r="R24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="S24" s="123" t="s">
+      <c r="S24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="T24" s="123" t="s">
+      <c r="T24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="123" t="s">
+      <c r="U24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="123" t="s">
+      <c r="V24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="W24" s="123" t="s">
+      <c r="W24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="X24" s="123" t="s">
+      <c r="X24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="Y24" s="123" t="s">
+      <c r="Y24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="Z24" s="123" t="s">
+      <c r="Z24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="AA24" s="123" t="s">
+      <c r="AA24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="AB24" s="123" t="s">
+      <c r="AB24" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="AC24" s="124" t="s">
+      <c r="AC24" s="127" t="s">
         <v>195</v>
       </c>
       <c r="AD24">
@@ -6028,88 +6024,88 @@
       <c r="A25" s="50">
         <v>24</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="E25" s="126" t="s">
+      <c r="E25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="126" t="s">
+      <c r="F25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="G25" s="126" t="s">
+      <c r="G25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="126" t="s">
+      <c r="H25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="I25" s="126" t="s">
+      <c r="I25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="J25" s="126" t="s">
+      <c r="J25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="126" t="s">
+      <c r="K25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="L25" s="126" t="s">
+      <c r="L25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="M25" s="126" t="s">
+      <c r="M25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="N25" s="126" t="s">
+      <c r="N25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="O25" s="126" t="s">
+      <c r="O25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="P25" s="126" t="s">
+      <c r="P25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="Q25" s="126" t="s">
+      <c r="Q25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="R25" s="126" t="s">
+      <c r="R25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="S25" s="126" t="s">
+      <c r="S25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="T25" s="126" t="s">
+      <c r="T25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="U25" s="126" t="s">
+      <c r="U25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="V25" s="126" t="s">
+      <c r="V25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="W25" s="126" t="s">
+      <c r="W25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="X25" s="126" t="s">
+      <c r="X25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="Y25" s="126" t="s">
+      <c r="Y25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="Z25" s="126" t="s">
+      <c r="Z25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="AA25" s="126" t="s">
+      <c r="AA25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="AB25" s="126" t="s">
+      <c r="AB25" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="AC25" s="127" t="s">
+      <c r="AC25" s="124" t="s">
         <v>197</v>
       </c>
       <c r="AD25">
@@ -6121,88 +6117,88 @@
       <c r="A26" s="50">
         <v>25</v>
       </c>
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="123" t="s">
+      <c r="E26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="123" t="s">
+      <c r="F26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="123" t="s">
+      <c r="G26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="H26" s="123" t="s">
+      <c r="H26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="I26" s="123" t="s">
+      <c r="I26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="J26" s="123" t="s">
+      <c r="J26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="K26" s="123" t="s">
+      <c r="K26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="L26" s="123" t="s">
+      <c r="L26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="M26" s="123" t="s">
+      <c r="M26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="N26" s="123" t="s">
+      <c r="N26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="O26" s="123" t="s">
+      <c r="O26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="P26" s="123" t="s">
+      <c r="P26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="Q26" s="123" t="s">
+      <c r="Q26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="R26" s="123" t="s">
+      <c r="R26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="S26" s="123" t="s">
+      <c r="S26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="T26" s="123" t="s">
+      <c r="T26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="U26" s="123" t="s">
+      <c r="U26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="123" t="s">
+      <c r="V26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="W26" s="123" t="s">
+      <c r="W26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="X26" s="123" t="s">
+      <c r="X26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="Y26" s="123" t="s">
+      <c r="Y26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="Z26" s="123" t="s">
+      <c r="Z26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="AA26" s="123" t="s">
+      <c r="AA26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="AB26" s="123" t="s">
+      <c r="AB26" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="AC26" s="124" t="s">
+      <c r="AC26" s="127" t="s">
         <v>199</v>
       </c>
       <c r="AD26">
@@ -6214,88 +6210,88 @@
       <c r="A27" s="50">
         <v>26</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="123" t="s">
+      <c r="G27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="H27" s="123" t="s">
+      <c r="H27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="123" t="s">
+      <c r="I27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="123" t="s">
+      <c r="J27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="K27" s="123" t="s">
+      <c r="K27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="L27" s="123" t="s">
+      <c r="L27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="M27" s="123" t="s">
+      <c r="M27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="N27" s="123" t="s">
+      <c r="N27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="O27" s="123" t="s">
+      <c r="O27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="P27" s="123" t="s">
+      <c r="P27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="Q27" s="123" t="s">
+      <c r="Q27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="R27" s="123" t="s">
+      <c r="R27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="S27" s="123" t="s">
+      <c r="S27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="T27" s="123" t="s">
+      <c r="T27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="U27" s="123" t="s">
+      <c r="U27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="V27" s="123" t="s">
+      <c r="V27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="W27" s="123" t="s">
+      <c r="W27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="X27" s="123" t="s">
+      <c r="X27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="Y27" s="123" t="s">
+      <c r="Y27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="Z27" s="123" t="s">
+      <c r="Z27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="AA27" s="123" t="s">
+      <c r="AA27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="AB27" s="123" t="s">
+      <c r="AB27" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="AC27" s="124" t="s">
+      <c r="AC27" s="127" t="s">
         <v>151</v>
       </c>
       <c r="AD27">
@@ -6307,88 +6303,88 @@
       <c r="A28" s="50">
         <v>27</v>
       </c>
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="D28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="126" t="s">
+      <c r="E28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="126" t="s">
+      <c r="F28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="126" t="s">
+      <c r="H28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="126" t="s">
+      <c r="I28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="126" t="s">
+      <c r="J28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="126" t="s">
+      <c r="K28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="L28" s="126" t="s">
+      <c r="L28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="M28" s="126" t="s">
+      <c r="M28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="N28" s="126" t="s">
+      <c r="N28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="126" t="s">
+      <c r="O28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="126" t="s">
+      <c r="P28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="Q28" s="126" t="s">
+      <c r="Q28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="R28" s="126" t="s">
+      <c r="R28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="S28" s="126" t="s">
+      <c r="S28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="T28" s="126" t="s">
+      <c r="T28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="U28" s="126" t="s">
+      <c r="U28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="V28" s="126" t="s">
+      <c r="V28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="W28" s="126" t="s">
+      <c r="W28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="X28" s="126" t="s">
+      <c r="X28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="Y28" s="126" t="s">
+      <c r="Y28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="Z28" s="126" t="s">
+      <c r="Z28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="AA28" s="126" t="s">
+      <c r="AA28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="AB28" s="126" t="s">
+      <c r="AB28" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="AC28" s="127" t="s">
+      <c r="AC28" s="124" t="s">
         <v>153</v>
       </c>
       <c r="AD28">
@@ -6400,88 +6396,88 @@
       <c r="A29" s="50">
         <v>28</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="125" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="123" t="s">
+      <c r="D29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="123" t="s">
+      <c r="E29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="123" t="s">
+      <c r="F29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="123" t="s">
+      <c r="G29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="H29" s="123" t="s">
+      <c r="H29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="I29" s="123" t="s">
+      <c r="I29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="J29" s="123" t="s">
+      <c r="J29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="123" t="s">
+      <c r="K29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="L29" s="123" t="s">
+      <c r="L29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="M29" s="123" t="s">
+      <c r="M29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="N29" s="123" t="s">
+      <c r="N29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="O29" s="123" t="s">
+      <c r="O29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="P29" s="123" t="s">
+      <c r="P29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="Q29" s="123" t="s">
+      <c r="Q29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="R29" s="123" t="s">
+      <c r="R29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="S29" s="123" t="s">
+      <c r="S29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="T29" s="123" t="s">
+      <c r="T29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="U29" s="123" t="s">
+      <c r="U29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="V29" s="123" t="s">
+      <c r="V29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="W29" s="123" t="s">
+      <c r="W29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="X29" s="123" t="s">
+      <c r="X29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="Y29" s="123" t="s">
+      <c r="Y29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="Z29" s="123" t="s">
+      <c r="Z29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="AA29" s="123" t="s">
+      <c r="AA29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="AB29" s="123" t="s">
+      <c r="AB29" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="AC29" s="124" t="s">
+      <c r="AC29" s="127" t="s">
         <v>155</v>
       </c>
       <c r="AD29">
@@ -6493,88 +6489,88 @@
       <c r="A30" s="50">
         <v>29</v>
       </c>
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="122" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="126" t="s">
+      <c r="E30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="126" t="s">
+      <c r="F30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="126" t="s">
+      <c r="G30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="126" t="s">
+      <c r="H30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="I30" s="126" t="s">
+      <c r="I30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="126" t="s">
+      <c r="J30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="K30" s="126" t="s">
+      <c r="K30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="L30" s="126" t="s">
+      <c r="L30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="126" t="s">
+      <c r="M30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="N30" s="126" t="s">
+      <c r="N30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="O30" s="126" t="s">
+      <c r="O30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="P30" s="126" t="s">
+      <c r="P30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="Q30" s="126" t="s">
+      <c r="Q30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="R30" s="126" t="s">
+      <c r="R30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="S30" s="126" t="s">
+      <c r="S30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="T30" s="126" t="s">
+      <c r="T30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="U30" s="126" t="s">
+      <c r="U30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="V30" s="126" t="s">
+      <c r="V30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="W30" s="126" t="s">
+      <c r="W30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="X30" s="126" t="s">
+      <c r="X30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="Y30" s="126" t="s">
+      <c r="Y30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="Z30" s="126" t="s">
+      <c r="Z30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="AA30" s="126" t="s">
+      <c r="AA30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="AB30" s="126" t="s">
+      <c r="AB30" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="AC30" s="127" t="s">
+      <c r="AC30" s="124" t="s">
         <v>157</v>
       </c>
       <c r="AD30">
@@ -6586,88 +6582,88 @@
       <c r="A31" s="50">
         <v>30</v>
       </c>
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="123" t="s">
+      <c r="E31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="123" t="s">
+      <c r="F31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="123" t="s">
+      <c r="G31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="123" t="s">
+      <c r="H31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="I31" s="123" t="s">
+      <c r="I31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="J31" s="123" t="s">
+      <c r="J31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="K31" s="123" t="s">
+      <c r="K31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="L31" s="123" t="s">
+      <c r="L31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="M31" s="123" t="s">
+      <c r="M31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="N31" s="123" t="s">
+      <c r="N31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="O31" s="123" t="s">
+      <c r="O31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="P31" s="123" t="s">
+      <c r="P31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="Q31" s="123" t="s">
+      <c r="Q31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="R31" s="123" t="s">
+      <c r="R31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="S31" s="123" t="s">
+      <c r="S31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="T31" s="123" t="s">
+      <c r="T31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="U31" s="123" t="s">
+      <c r="U31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="V31" s="123" t="s">
+      <c r="V31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="W31" s="123" t="s">
+      <c r="W31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="X31" s="123" t="s">
+      <c r="X31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="Y31" s="123" t="s">
+      <c r="Y31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="Z31" s="123" t="s">
+      <c r="Z31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AA31" s="123" t="s">
+      <c r="AA31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AB31" s="123" t="s">
+      <c r="AB31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AC31" s="124" t="s">
+      <c r="AC31" s="127" t="s">
         <v>159</v>
       </c>
       <c r="AD31">
@@ -6679,88 +6675,88 @@
       <c r="A32" s="50">
         <v>31</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="126" t="s">
+      <c r="D32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="126" t="s">
+      <c r="E32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="126" t="s">
+      <c r="F32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="126" t="s">
+      <c r="G32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="126" t="s">
+      <c r="H32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="126" t="s">
+      <c r="I32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="126" t="s">
+      <c r="J32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="K32" s="126" t="s">
+      <c r="K32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="L32" s="126" t="s">
+      <c r="L32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="M32" s="126" t="s">
+      <c r="M32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="N32" s="126" t="s">
+      <c r="N32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="O32" s="126" t="s">
+      <c r="O32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="126" t="s">
+      <c r="P32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="Q32" s="126" t="s">
+      <c r="Q32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="R32" s="126" t="s">
+      <c r="R32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="S32" s="126" t="s">
+      <c r="S32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="T32" s="126" t="s">
+      <c r="T32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="U32" s="126" t="s">
+      <c r="U32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="V32" s="126" t="s">
+      <c r="V32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="W32" s="126" t="s">
+      <c r="W32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="X32" s="126" t="s">
+      <c r="X32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="Y32" s="126" t="s">
+      <c r="Y32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="Z32" s="126" t="s">
+      <c r="Z32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="AA32" s="126" t="s">
+      <c r="AA32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="AB32" s="126" t="s">
+      <c r="AB32" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="AC32" s="127" t="s">
+      <c r="AC32" s="124" t="s">
         <v>161</v>
       </c>
       <c r="AD32">
@@ -6772,88 +6768,88 @@
       <c r="A33" s="50">
         <v>32</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="123" t="s">
+      <c r="E33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="123" t="s">
+      <c r="F33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="123" t="s">
+      <c r="G33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="H33" s="123" t="s">
+      <c r="H33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="123" t="s">
+      <c r="I33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="J33" s="123" t="s">
+      <c r="J33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="K33" s="123" t="s">
+      <c r="K33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="L33" s="123" t="s">
+      <c r="L33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="M33" s="123" t="s">
+      <c r="M33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="N33" s="123" t="s">
+      <c r="N33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="O33" s="123" t="s">
+      <c r="O33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="P33" s="123" t="s">
+      <c r="P33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="Q33" s="123" t="s">
+      <c r="Q33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="R33" s="123" t="s">
+      <c r="R33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="S33" s="123" t="s">
+      <c r="S33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="T33" s="123" t="s">
+      <c r="T33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="U33" s="123" t="s">
+      <c r="U33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="V33" s="123" t="s">
+      <c r="V33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="W33" s="123" t="s">
+      <c r="W33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="X33" s="123" t="s">
+      <c r="X33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="Y33" s="123" t="s">
+      <c r="Y33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="Z33" s="123" t="s">
+      <c r="Z33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="AA33" s="123" t="s">
+      <c r="AA33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="AB33" s="123" t="s">
+      <c r="AB33" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="AC33" s="124" t="s">
+      <c r="AC33" s="127" t="s">
         <v>163</v>
       </c>
       <c r="AD33">
@@ -6865,88 +6861,88 @@
       <c r="A34" s="50">
         <v>33</v>
       </c>
-      <c r="B34" s="125" t="s">
+      <c r="B34" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="126" t="s">
+      <c r="D34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="126" t="s">
+      <c r="E34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="126" t="s">
+      <c r="F34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="126" t="s">
+      <c r="G34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="126" t="s">
+      <c r="I34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="J34" s="126" t="s">
+      <c r="J34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="K34" s="126" t="s">
+      <c r="K34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="L34" s="126" t="s">
+      <c r="L34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="M34" s="126" t="s">
+      <c r="M34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="N34" s="126" t="s">
+      <c r="N34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="O34" s="126" t="s">
+      <c r="O34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="P34" s="126" t="s">
+      <c r="P34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="Q34" s="126" t="s">
+      <c r="Q34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="R34" s="126" t="s">
+      <c r="R34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="S34" s="126" t="s">
+      <c r="S34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="T34" s="126" t="s">
+      <c r="T34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="U34" s="126" t="s">
+      <c r="U34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="V34" s="126" t="s">
+      <c r="V34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="W34" s="126" t="s">
+      <c r="W34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="X34" s="126" t="s">
+      <c r="X34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="Y34" s="126" t="s">
+      <c r="Y34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="Z34" s="126" t="s">
+      <c r="Z34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="AA34" s="126" t="s">
+      <c r="AA34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="AB34" s="126" t="s">
+      <c r="AB34" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="AC34" s="127" t="s">
+      <c r="AC34" s="124" t="s">
         <v>165</v>
       </c>
       <c r="AD34">
@@ -6958,88 +6954,88 @@
       <c r="A35" s="50">
         <v>34</v>
       </c>
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="125" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="123" t="s">
+      <c r="D35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="123" t="s">
+      <c r="E35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="123" t="s">
+      <c r="F35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="123" t="s">
+      <c r="G35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="123" t="s">
+      <c r="H35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="I35" s="123" t="s">
+      <c r="I35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="J35" s="123" t="s">
+      <c r="J35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="123" t="s">
+      <c r="K35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="L35" s="123" t="s">
+      <c r="L35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="M35" s="123" t="s">
+      <c r="M35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="N35" s="123" t="s">
+      <c r="N35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="O35" s="123" t="s">
+      <c r="O35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="P35" s="123" t="s">
+      <c r="P35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="Q35" s="123" t="s">
+      <c r="Q35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="R35" s="123" t="s">
+      <c r="R35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="S35" s="123" t="s">
+      <c r="S35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="T35" s="123" t="s">
+      <c r="T35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="U35" s="123" t="s">
+      <c r="U35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="V35" s="123" t="s">
+      <c r="V35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="W35" s="123" t="s">
+      <c r="W35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="X35" s="123" t="s">
+      <c r="X35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="Y35" s="123" t="s">
+      <c r="Y35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="Z35" s="123" t="s">
+      <c r="Z35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AA35" s="123" t="s">
+      <c r="AA35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AB35" s="123" t="s">
+      <c r="AB35" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AC35" s="124" t="s">
+      <c r="AC35" s="127" t="s">
         <v>167</v>
       </c>
       <c r="AD35">
@@ -7051,88 +7047,88 @@
       <c r="A36" s="50">
         <v>35</v>
       </c>
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="122" t="s">
         <v>209</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="126" t="s">
+      <c r="D36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="126" t="s">
+      <c r="E36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="126" t="s">
+      <c r="F36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="G36" s="126" t="s">
+      <c r="G36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="H36" s="126" t="s">
+      <c r="H36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="126" t="s">
+      <c r="I36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="J36" s="126" t="s">
+      <c r="J36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="K36" s="126" t="s">
+      <c r="K36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="L36" s="126" t="s">
+      <c r="L36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="M36" s="126" t="s">
+      <c r="M36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="N36" s="126" t="s">
+      <c r="N36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="O36" s="126" t="s">
+      <c r="O36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="P36" s="126" t="s">
+      <c r="P36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="Q36" s="126" t="s">
+      <c r="Q36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="R36" s="126" t="s">
+      <c r="R36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="S36" s="126" t="s">
+      <c r="S36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="T36" s="126" t="s">
+      <c r="T36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="U36" s="126" t="s">
+      <c r="U36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="V36" s="126" t="s">
+      <c r="V36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="W36" s="126" t="s">
+      <c r="W36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="X36" s="126" t="s">
+      <c r="X36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="Y36" s="126" t="s">
+      <c r="Y36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="Z36" s="126" t="s">
+      <c r="Z36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="AA36" s="126" t="s">
+      <c r="AA36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="AB36" s="126" t="s">
+      <c r="AB36" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="AC36" s="127" t="s">
+      <c r="AC36" s="124" t="s">
         <v>169</v>
       </c>
       <c r="AD36">
@@ -7144,88 +7140,88 @@
       <c r="A37" s="50">
         <v>36</v>
       </c>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="123" t="s">
+      <c r="D37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="123" t="s">
+      <c r="E37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="123" t="s">
+      <c r="F37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="123" t="s">
+      <c r="G37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="123" t="s">
+      <c r="H37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="123" t="s">
+      <c r="I37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="J37" s="123" t="s">
+      <c r="J37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="K37" s="123" t="s">
+      <c r="K37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="L37" s="123" t="s">
+      <c r="L37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="M37" s="123" t="s">
+      <c r="M37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="N37" s="123" t="s">
+      <c r="N37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="O37" s="123" t="s">
+      <c r="O37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="P37" s="123" t="s">
+      <c r="P37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="Q37" s="123" t="s">
+      <c r="Q37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="R37" s="123" t="s">
+      <c r="R37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="S37" s="123" t="s">
+      <c r="S37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="T37" s="123" t="s">
+      <c r="T37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="U37" s="123" t="s">
+      <c r="U37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="V37" s="123" t="s">
+      <c r="V37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="W37" s="123" t="s">
+      <c r="W37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="X37" s="123" t="s">
+      <c r="X37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="Y37" s="123" t="s">
+      <c r="Y37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="Z37" s="123" t="s">
+      <c r="Z37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="AA37" s="123" t="s">
+      <c r="AA37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="AB37" s="123" t="s">
+      <c r="AB37" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="AC37" s="124" t="s">
+      <c r="AC37" s="127" t="s">
         <v>171</v>
       </c>
       <c r="AD37">
@@ -7237,88 +7233,88 @@
       <c r="A38" s="50">
         <v>37</v>
       </c>
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="126" t="s">
+      <c r="D38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="126" t="s">
+      <c r="E38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="126" t="s">
+      <c r="F38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="G38" s="126" t="s">
+      <c r="G38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="126" t="s">
+      <c r="H38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="I38" s="126" t="s">
+      <c r="I38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="J38" s="126" t="s">
+      <c r="J38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="K38" s="126" t="s">
+      <c r="K38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="L38" s="126" t="s">
+      <c r="L38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="M38" s="126" t="s">
+      <c r="M38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="N38" s="126" t="s">
+      <c r="N38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="O38" s="126" t="s">
+      <c r="O38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="126" t="s">
+      <c r="P38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="Q38" s="126" t="s">
+      <c r="Q38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="R38" s="126" t="s">
+      <c r="R38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="S38" s="126" t="s">
+      <c r="S38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="T38" s="126" t="s">
+      <c r="T38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="U38" s="126" t="s">
+      <c r="U38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="V38" s="126" t="s">
+      <c r="V38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="W38" s="126" t="s">
+      <c r="W38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="X38" s="126" t="s">
+      <c r="X38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="Y38" s="126" t="s">
+      <c r="Y38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="Z38" s="126" t="s">
+      <c r="Z38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="AA38" s="126" t="s">
+      <c r="AA38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="AB38" s="126" t="s">
+      <c r="AB38" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="AC38" s="127" t="s">
+      <c r="AC38" s="124" t="s">
         <v>173</v>
       </c>
       <c r="AD38">
@@ -7330,88 +7326,88 @@
       <c r="A39" s="50">
         <v>38</v>
       </c>
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="123" t="s">
+      <c r="D39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="E39" s="123" t="s">
+      <c r="E39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="123" t="s">
+      <c r="F39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="123" t="s">
+      <c r="G39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="H39" s="123" t="s">
+      <c r="H39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="123" t="s">
+      <c r="I39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="J39" s="123" t="s">
+      <c r="J39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="K39" s="123" t="s">
+      <c r="K39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="L39" s="123" t="s">
+      <c r="L39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="M39" s="123" t="s">
+      <c r="M39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="N39" s="123" t="s">
+      <c r="N39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="O39" s="123" t="s">
+      <c r="O39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="P39" s="123" t="s">
+      <c r="P39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="Q39" s="123" t="s">
+      <c r="Q39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="R39" s="123" t="s">
+      <c r="R39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="S39" s="123" t="s">
+      <c r="S39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="T39" s="123" t="s">
+      <c r="T39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="U39" s="123" t="s">
+      <c r="U39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="V39" s="123" t="s">
+      <c r="V39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="W39" s="123" t="s">
+      <c r="W39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="X39" s="123" t="s">
+      <c r="X39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="Y39" s="123" t="s">
+      <c r="Y39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="Z39" s="123" t="s">
+      <c r="Z39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="AA39" s="123" t="s">
+      <c r="AA39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="AB39" s="123" t="s">
+      <c r="AB39" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="AC39" s="124" t="s">
+      <c r="AC39" s="127" t="s">
         <v>175</v>
       </c>
       <c r="AD39">
@@ -7423,88 +7419,88 @@
       <c r="A40" s="50">
         <v>39</v>
       </c>
-      <c r="B40" s="125" t="s">
+      <c r="B40" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="126" t="s">
+      <c r="C40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="126" t="s">
+      <c r="D40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="126" t="s">
+      <c r="E40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="126" t="s">
+      <c r="F40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="126" t="s">
+      <c r="G40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="126" t="s">
+      <c r="H40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="I40" s="126" t="s">
+      <c r="I40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="J40" s="126" t="s">
+      <c r="J40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="K40" s="126" t="s">
+      <c r="K40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="L40" s="126" t="s">
+      <c r="L40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="M40" s="126" t="s">
+      <c r="M40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="N40" s="126" t="s">
+      <c r="N40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="O40" s="126" t="s">
+      <c r="O40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="P40" s="126" t="s">
+      <c r="P40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="Q40" s="126" t="s">
+      <c r="Q40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="R40" s="126" t="s">
+      <c r="R40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="S40" s="126" t="s">
+      <c r="S40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="T40" s="126" t="s">
+      <c r="T40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="U40" s="126" t="s">
+      <c r="U40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="V40" s="126" t="s">
+      <c r="V40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="W40" s="126" t="s">
+      <c r="W40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="X40" s="126" t="s">
+      <c r="X40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="Y40" s="126" t="s">
+      <c r="Y40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="Z40" s="126" t="s">
+      <c r="Z40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="AA40" s="126" t="s">
+      <c r="AA40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="AB40" s="126" t="s">
+      <c r="AB40" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="AC40" s="127" t="s">
+      <c r="AC40" s="124" t="s">
         <v>177</v>
       </c>
       <c r="AD40">
@@ -7516,88 +7512,88 @@
       <c r="A41" s="50">
         <v>40</v>
       </c>
-      <c r="B41" s="122" t="s">
+      <c r="B41" s="125" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="123" t="s">
+      <c r="D41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="123" t="s">
+      <c r="E41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="123" t="s">
+      <c r="F41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="H41" s="123" t="s">
+      <c r="H41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="I41" s="123" t="s">
+      <c r="I41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="J41" s="123" t="s">
+      <c r="J41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="K41" s="123" t="s">
+      <c r="K41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="L41" s="123" t="s">
+      <c r="L41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="M41" s="123" t="s">
+      <c r="M41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="N41" s="123" t="s">
+      <c r="N41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="O41" s="123" t="s">
+      <c r="O41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="P41" s="123" t="s">
+      <c r="P41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="Q41" s="123" t="s">
+      <c r="Q41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="R41" s="123" t="s">
+      <c r="R41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="S41" s="123" t="s">
+      <c r="S41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="T41" s="123" t="s">
+      <c r="T41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="U41" s="123" t="s">
+      <c r="U41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="V41" s="123" t="s">
+      <c r="V41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="W41" s="123" t="s">
+      <c r="W41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="X41" s="123" t="s">
+      <c r="X41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="Y41" s="123" t="s">
+      <c r="Y41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="Z41" s="123" t="s">
+      <c r="Z41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="AA41" s="123" t="s">
+      <c r="AA41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="AB41" s="123" t="s">
+      <c r="AB41" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="AC41" s="124" t="s">
+      <c r="AC41" s="127" t="s">
         <v>179</v>
       </c>
       <c r="AD41">
@@ -7609,88 +7605,88 @@
       <c r="A42" s="50">
         <v>41</v>
       </c>
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="126" t="s">
+      <c r="C42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="126" t="s">
+      <c r="D42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="126" t="s">
+      <c r="E42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="126" t="s">
+      <c r="F42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="G42" s="126" t="s">
+      <c r="G42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="H42" s="126" t="s">
+      <c r="H42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="I42" s="126" t="s">
+      <c r="I42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="J42" s="126" t="s">
+      <c r="J42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="K42" s="126" t="s">
+      <c r="K42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="126" t="s">
+      <c r="L42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="M42" s="126" t="s">
+      <c r="M42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="N42" s="126" t="s">
+      <c r="N42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="O42" s="126" t="s">
+      <c r="O42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="P42" s="126" t="s">
+      <c r="P42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="Q42" s="126" t="s">
+      <c r="Q42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="R42" s="126" t="s">
+      <c r="R42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="S42" s="126" t="s">
+      <c r="S42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="T42" s="126" t="s">
+      <c r="T42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="U42" s="126" t="s">
+      <c r="U42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="V42" s="126" t="s">
+      <c r="V42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="W42" s="126" t="s">
+      <c r="W42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="X42" s="126" t="s">
+      <c r="X42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="Y42" s="126" t="s">
+      <c r="Y42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="Z42" s="126" t="s">
+      <c r="Z42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="AA42" s="126" t="s">
+      <c r="AA42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="AB42" s="126" t="s">
+      <c r="AB42" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="AC42" s="127" t="s">
+      <c r="AC42" s="124" t="s">
         <v>181</v>
       </c>
       <c r="AD42">
@@ -7702,88 +7698,88 @@
       <c r="A43" s="50">
         <v>42</v>
       </c>
-      <c r="B43" s="122" t="s">
+      <c r="B43" s="125" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="123" t="s">
+      <c r="D43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="E43" s="123" t="s">
+      <c r="E43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="123" t="s">
+      <c r="F43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="123" t="s">
+      <c r="G43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="H43" s="123" t="s">
+      <c r="H43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="I43" s="123" t="s">
+      <c r="I43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="J43" s="123" t="s">
+      <c r="J43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="K43" s="123" t="s">
+      <c r="K43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="L43" s="123" t="s">
+      <c r="L43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="M43" s="123" t="s">
+      <c r="M43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="N43" s="123" t="s">
+      <c r="N43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="O43" s="123" t="s">
+      <c r="O43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="P43" s="123" t="s">
+      <c r="P43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="Q43" s="123" t="s">
+      <c r="Q43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="123" t="s">
+      <c r="R43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="S43" s="123" t="s">
+      <c r="S43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="T43" s="123" t="s">
+      <c r="T43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="U43" s="123" t="s">
+      <c r="U43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="V43" s="123" t="s">
+      <c r="V43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="W43" s="123" t="s">
+      <c r="W43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="X43" s="123" t="s">
+      <c r="X43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="Y43" s="123" t="s">
+      <c r="Y43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="Z43" s="123" t="s">
+      <c r="Z43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="AA43" s="123" t="s">
+      <c r="AA43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="AB43" s="123" t="s">
+      <c r="AB43" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="AC43" s="124" t="s">
+      <c r="AC43" s="127" t="s">
         <v>183</v>
       </c>
       <c r="AD43">
@@ -7795,88 +7791,88 @@
       <c r="A44" s="50">
         <v>43</v>
       </c>
-      <c r="B44" s="125" t="s">
+      <c r="B44" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="126" t="s">
+      <c r="C44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="126" t="s">
+      <c r="D44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="E44" s="126" t="s">
+      <c r="E44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="126" t="s">
+      <c r="F44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="G44" s="126" t="s">
+      <c r="G44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="126" t="s">
+      <c r="H44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="I44" s="126" t="s">
+      <c r="I44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="J44" s="126" t="s">
+      <c r="J44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="K44" s="126" t="s">
+      <c r="K44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="L44" s="126" t="s">
+      <c r="L44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="M44" s="126" t="s">
+      <c r="M44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="N44" s="126" t="s">
+      <c r="N44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="O44" s="126" t="s">
+      <c r="O44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="P44" s="126" t="s">
+      <c r="P44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="Q44" s="126" t="s">
+      <c r="Q44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="R44" s="126" t="s">
+      <c r="R44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="S44" s="126" t="s">
+      <c r="S44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="T44" s="126" t="s">
+      <c r="T44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="U44" s="126" t="s">
+      <c r="U44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="V44" s="126" t="s">
+      <c r="V44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="W44" s="126" t="s">
+      <c r="W44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="X44" s="126" t="s">
+      <c r="X44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="Y44" s="126" t="s">
+      <c r="Y44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="Z44" s="126" t="s">
+      <c r="Z44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="AA44" s="126" t="s">
+      <c r="AA44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="AB44" s="126" t="s">
+      <c r="AB44" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="AC44" s="127" t="s">
+      <c r="AC44" s="124" t="s">
         <v>185</v>
       </c>
       <c r="AD44">
@@ -8450,7 +8446,7 @@
       </c>
       <c r="L20" s="109">
         <f>CALIF_ANV!AX11</f>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="M20" s="110">
         <f>CALIF_ANV!AX48</f>
@@ -8462,7 +8458,7 @@
       </c>
       <c r="O20" s="63">
         <f>IF(AVERAGE(L20:N20)&gt;0, TRUNC(AVERAGE(L20:N20),1),"")</f>
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -8502,7 +8498,7 @@
       <c r="K21" s="108"/>
       <c r="L21" s="109">
         <f>CALIF_ANV!AX12</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M21" s="110" t="str">
         <f>CALIF_ANV!AX49</f>
@@ -8514,7 +8510,7 @@
       </c>
       <c r="O21" s="63">
         <f t="shared" ref="O21:O69" si="6">IF(AVERAGE(L21:N21)&gt;0, TRUNC(AVERAGE(L21:N21),1),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -8554,7 +8550,7 @@
       <c r="K22" s="108"/>
       <c r="L22" s="109">
         <f>CALIF_ANV!AX13</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M22" s="110" t="str">
         <f>CALIF_ANV!AX50</f>
@@ -8566,7 +8562,7 @@
       </c>
       <c r="O22" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -8768,7 +8764,7 @@
       </c>
       <c r="L26" s="109">
         <f>CALIF_ANV!AX17</f>
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="M26" s="110">
         <f>CALIF_ANV!AX54</f>
@@ -8780,7 +8776,7 @@
       </c>
       <c r="O26" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -8872,7 +8868,7 @@
       <c r="K28" s="108"/>
       <c r="L28" s="109">
         <f>CALIF_ANV!AX19</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M28" s="110" t="str">
         <f>CALIF_ANV!AX56</f>
@@ -8884,7 +8880,7 @@
       </c>
       <c r="O28" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -8924,7 +8920,7 @@
       <c r="K29" s="108"/>
       <c r="L29" s="109">
         <f>CALIF_ANV!AX20</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M29" s="110" t="str">
         <f>CALIF_ANV!AX57</f>
@@ -8936,7 +8932,7 @@
       </c>
       <c r="O29" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -8976,7 +8972,7 @@
       <c r="K30" s="108"/>
       <c r="L30" s="109">
         <f>CALIF_ANV!AX21</f>
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="M30" s="110" t="str">
         <f>CALIF_ANV!AX58</f>
@@ -8988,7 +8984,7 @@
       </c>
       <c r="O30" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -9028,7 +9024,7 @@
       <c r="K31" s="108"/>
       <c r="L31" s="109">
         <f>CALIF_ANV!AX22</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M31" s="110" t="str">
         <f>CALIF_ANV!AX59</f>
@@ -9040,7 +9036,7 @@
       </c>
       <c r="O31" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -9080,7 +9076,7 @@
       <c r="K32" s="108"/>
       <c r="L32" s="109">
         <f>CALIF_ANV!AX23</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M32" s="110" t="str">
         <f>CALIF_ANV!AX60</f>
@@ -9092,7 +9088,7 @@
       </c>
       <c r="O32" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -9132,7 +9128,7 @@
       <c r="K33" s="108"/>
       <c r="L33" s="109">
         <f>CALIF_ANV!AX24</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M33" s="110" t="str">
         <f>CALIF_ANV!AX61</f>
@@ -9144,7 +9140,7 @@
       </c>
       <c r="O33" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -9184,7 +9180,7 @@
       <c r="K34" s="108"/>
       <c r="L34" s="109">
         <f>CALIF_ANV!AX25</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M34" s="110" t="str">
         <f>CALIF_ANV!AX62</f>
@@ -9196,7 +9192,7 @@
       </c>
       <c r="O34" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -9236,7 +9232,7 @@
       <c r="K35" s="108"/>
       <c r="L35" s="109">
         <f>CALIF_ANV!AX26</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M35" s="110" t="str">
         <f>CALIF_ANV!AX63</f>
@@ -9248,7 +9244,7 @@
       </c>
       <c r="O35" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -9288,7 +9284,7 @@
       <c r="K36" s="108"/>
       <c r="L36" s="109">
         <f>CALIF_ANV!AX27</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M36" s="110" t="str">
         <f>CALIF_ANV!AX64</f>
@@ -9300,7 +9296,7 @@
       </c>
       <c r="O36" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -9340,7 +9336,7 @@
       <c r="K37" s="108"/>
       <c r="L37" s="109">
         <f>CALIF_ANV!AX28</f>
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="M37" s="110" t="str">
         <f>CALIF_ANV!AX65</f>
@@ -9352,7 +9348,7 @@
       </c>
       <c r="O37" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -9392,7 +9388,7 @@
       <c r="K38" s="108"/>
       <c r="L38" s="109">
         <f>CALIF_ANV!AX29</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M38" s="110" t="str">
         <f>CALIF_ANV!AX66</f>
@@ -9404,7 +9400,7 @@
       </c>
       <c r="O38" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -9600,7 +9596,7 @@
       <c r="K42" s="108"/>
       <c r="L42" s="109">
         <f>CALIF_ANV!AX33</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M42" s="110" t="str">
         <f>CALIF_ANV!AX70</f>
@@ -9612,7 +9608,7 @@
       </c>
       <c r="O42" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -9652,7 +9648,7 @@
       <c r="K43" s="108"/>
       <c r="L43" s="109">
         <f>CALIF_ANV!AX34</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M43" s="110" t="str">
         <f>CALIF_ANV!AX71</f>
@@ -9664,7 +9660,7 @@
       </c>
       <c r="O43" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -9704,7 +9700,7 @@
       <c r="K44" s="108"/>
       <c r="L44" s="109">
         <f>CALIF_ANV!AX35</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M44" s="110" t="str">
         <f>CALIF_ANV!AX72</f>
@@ -9716,7 +9712,7 @@
       </c>
       <c r="O44" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -9762,7 +9758,7 @@
       </c>
       <c r="L45" s="63">
         <f>CALIF_REV!AX4</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M45" s="63">
         <f>CALIF_REV!AX39</f>
@@ -9774,7 +9770,7 @@
       </c>
       <c r="O45" s="63">
         <f t="shared" si="6"/>
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -9918,7 +9914,7 @@
       <c r="K48" s="108"/>
       <c r="L48" s="63">
         <f>CALIF_REV!AX7</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M48" s="63" t="str">
         <f>CALIF_REV!AX42</f>
@@ -9930,7 +9926,7 @@
       </c>
       <c r="O48" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -10074,7 +10070,7 @@
       <c r="K51" s="108"/>
       <c r="L51" s="63">
         <f>CALIF_REV!AX10</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M51" s="63" t="str">
         <f>CALIF_REV!AX45</f>
@@ -10086,7 +10082,7 @@
       </c>
       <c r="O51" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -10230,7 +10226,7 @@
       <c r="K54" s="108"/>
       <c r="L54" s="63">
         <f>CALIF_REV!AX13</f>
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="M54" s="63" t="str">
         <f>CALIF_REV!AX48</f>
@@ -10242,7 +10238,7 @@
       </c>
       <c r="O54" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -10282,7 +10278,7 @@
       <c r="K55" s="108"/>
       <c r="L55" s="63">
         <f>CALIF_REV!AX14</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M55" s="63" t="str">
         <f>CALIF_REV!AX49</f>
@@ -10294,7 +10290,7 @@
       </c>
       <c r="O55" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -10334,7 +10330,7 @@
       <c r="K56" s="108"/>
       <c r="L56" s="63">
         <f>CALIF_REV!AX15</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M56" s="63" t="str">
         <f>CALIF_REV!AX50</f>
@@ -10346,7 +10342,7 @@
       </c>
       <c r="O56" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -10542,7 +10538,7 @@
       <c r="K60" s="108"/>
       <c r="L60" s="63">
         <f>CALIF_REV!AX19</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M60" s="63" t="str">
         <f>CALIF_REV!AX54</f>
@@ -10554,7 +10550,7 @@
       </c>
       <c r="O60" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -10594,7 +10590,7 @@
       <c r="K61" s="108"/>
       <c r="L61" s="63">
         <f>CALIF_REV!AX20</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M61" s="63" t="str">
         <f>CALIF_REV!AX55</f>
@@ -10606,7 +10602,7 @@
       </c>
       <c r="O61" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -10646,7 +10642,7 @@
       <c r="K62" s="108"/>
       <c r="L62" s="63">
         <f>CALIF_REV!AX21</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M62" s="63" t="str">
         <f>CALIF_REV!AX56</f>
@@ -10658,7 +10654,7 @@
       </c>
       <c r="O62" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -31068,8 +31064,8 @@
   </sheetPr>
   <dimension ref="A1:BG116"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:BF37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32047,7 +32043,7 @@
       </c>
       <c r="AH13" s="116"/>
       <c r="AI13" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ13" s="116"/>
       <c r="AK13" s="116"/>
@@ -32070,12 +32066,12 @@
       <c r="BB13" s="116"/>
       <c r="BC13" s="311" t="str">
         <f>IF(B13="","",CONCATENATE(IF(B13="","",COUNTIF(AD13:BB13,"&gt;0"))," / ",BF$8))</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD13" s="312"/>
       <c r="BE13" s="311">
         <f>IF(B13="","",SUM(AD13:BB13))</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF13" s="312"/>
       <c r="BG13" s="76" t="str">
@@ -32124,11 +32120,11 @@
       </c>
       <c r="AF14" s="117"/>
       <c r="AG14" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH14" s="117"/>
       <c r="AI14" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ14" s="117"/>
       <c r="AK14" s="117"/>
@@ -32151,12 +32147,12 @@
       <c r="BB14" s="117"/>
       <c r="BC14" s="309" t="str">
         <f t="shared" ref="BC14:BC37" si="0">IF(B14="","",CONCATENATE(IF(B14="","",COUNTIF(AD14:BB14,"&gt;0"))," / ",BF$8))</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD14" s="310"/>
       <c r="BE14" s="309">
         <f t="shared" ref="BE14:BE37" si="1">IF(B14="","",SUM(AD14:BB14))</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF14" s="310"/>
       <c r="BG14" s="76" t="str">
@@ -32201,15 +32197,15 @@
       <c r="AC15" s="168"/>
       <c r="AD15" s="116"/>
       <c r="AE15" s="116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF15" s="116"/>
       <c r="AG15" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH15" s="116"/>
       <c r="AI15" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ15" s="116"/>
       <c r="AK15" s="116"/>
@@ -32232,12 +32228,12 @@
       <c r="BB15" s="116"/>
       <c r="BC15" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD15" s="312"/>
       <c r="BE15" s="311">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF15" s="312"/>
       <c r="BG15" s="76" t="str">
@@ -32529,11 +32525,11 @@
       </c>
       <c r="AF19" s="116"/>
       <c r="AG19" s="116">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH19" s="116"/>
       <c r="AI19" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ19" s="116"/>
       <c r="AK19" s="116"/>
@@ -32556,12 +32552,12 @@
       <c r="BB19" s="116"/>
       <c r="BC19" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>0 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="BD19" s="312"/>
       <c r="BE19" s="311">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BF19" s="312"/>
       <c r="BG19" s="76" t="str">
@@ -32695,7 +32691,7 @@
       </c>
       <c r="AH21" s="116"/>
       <c r="AI21" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ21" s="116"/>
       <c r="AK21" s="116"/>
@@ -32718,12 +32714,12 @@
       <c r="BB21" s="116"/>
       <c r="BC21" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD21" s="312"/>
       <c r="BE21" s="311">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF21" s="312"/>
       <c r="BG21" s="76" t="str">
@@ -32772,7 +32768,7 @@
       </c>
       <c r="AF22" s="117"/>
       <c r="AG22" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH22" s="117"/>
       <c r="AI22" s="117">
@@ -32799,12 +32795,12 @@
       <c r="BB22" s="117"/>
       <c r="BC22" s="309" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD22" s="310"/>
       <c r="BE22" s="309">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF22" s="310"/>
       <c r="BG22" s="76" t="str">
@@ -32853,11 +32849,11 @@
       </c>
       <c r="AF23" s="116"/>
       <c r="AG23" s="116">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH23" s="116"/>
       <c r="AI23" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ23" s="116"/>
       <c r="AK23" s="116"/>
@@ -32880,12 +32876,12 @@
       <c r="BB23" s="116"/>
       <c r="BC23" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD23" s="312"/>
       <c r="BE23" s="311">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="BF23" s="312"/>
       <c r="BG23" s="76" t="str">
@@ -32934,11 +32930,11 @@
       </c>
       <c r="AF24" s="117"/>
       <c r="AG24" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH24" s="117"/>
       <c r="AI24" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" s="117"/>
       <c r="AK24" s="117"/>
@@ -32961,12 +32957,12 @@
       <c r="BB24" s="117"/>
       <c r="BC24" s="309" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD24" s="310"/>
       <c r="BE24" s="309">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF24" s="310"/>
       <c r="BG24" s="76" t="str">
@@ -33019,7 +33015,7 @@
       </c>
       <c r="AH25" s="116"/>
       <c r="AI25" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ25" s="116"/>
       <c r="AK25" s="116"/>
@@ -33042,12 +33038,12 @@
       <c r="BB25" s="116"/>
       <c r="BC25" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD25" s="312"/>
       <c r="BE25" s="311">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF25" s="312"/>
       <c r="BG25" s="76" t="str">
@@ -33092,15 +33088,15 @@
       <c r="AC26" s="165"/>
       <c r="AD26" s="117"/>
       <c r="AE26" s="117">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF26" s="117"/>
       <c r="AG26" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH26" s="117"/>
       <c r="AI26" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ26" s="117"/>
       <c r="AK26" s="117"/>
@@ -33123,12 +33119,12 @@
       <c r="BB26" s="117"/>
       <c r="BC26" s="309" t="str">
         <f t="shared" si="0"/>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD26" s="310"/>
       <c r="BE26" s="309">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF26" s="310"/>
       <c r="BG26" s="76" t="str">
@@ -33177,11 +33173,11 @@
       </c>
       <c r="AF27" s="116"/>
       <c r="AG27" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH27" s="116"/>
       <c r="AI27" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ27" s="116"/>
       <c r="AK27" s="116"/>
@@ -33204,12 +33200,12 @@
       <c r="BB27" s="116"/>
       <c r="BC27" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD27" s="312"/>
       <c r="BE27" s="311">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF27" s="312"/>
       <c r="BG27" s="76" t="str">
@@ -33258,11 +33254,11 @@
       </c>
       <c r="AF28" s="117"/>
       <c r="AG28" s="117">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH28" s="117"/>
       <c r="AI28" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ28" s="117"/>
       <c r="AK28" s="117"/>
@@ -33285,12 +33281,12 @@
       <c r="BB28" s="117"/>
       <c r="BC28" s="309" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD28" s="310"/>
       <c r="BE28" s="309">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="BF28" s="310"/>
       <c r="BG28" s="76" t="str">
@@ -33335,15 +33331,15 @@
       <c r="AC29" s="168"/>
       <c r="AD29" s="116"/>
       <c r="AE29" s="116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF29" s="116"/>
       <c r="AG29" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH29" s="116"/>
       <c r="AI29" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ29" s="116"/>
       <c r="AK29" s="116"/>
@@ -33366,12 +33362,12 @@
       <c r="BB29" s="116"/>
       <c r="BC29" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD29" s="312"/>
       <c r="BE29" s="311">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF29" s="312"/>
       <c r="BG29" s="76" t="str">
@@ -33420,11 +33416,11 @@
       </c>
       <c r="AF30" s="117"/>
       <c r="AG30" s="117">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH30" s="117"/>
       <c r="AI30" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ30" s="117"/>
       <c r="AK30" s="117"/>
@@ -33447,12 +33443,12 @@
       <c r="BB30" s="117"/>
       <c r="BC30" s="309" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD30" s="310"/>
       <c r="BE30" s="309">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="BF30" s="310"/>
       <c r="BG30" s="76" t="str">
@@ -33501,11 +33497,11 @@
       </c>
       <c r="AF31" s="116"/>
       <c r="AG31" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH31" s="116"/>
       <c r="AI31" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ31" s="116"/>
       <c r="AK31" s="116"/>
@@ -33528,12 +33524,12 @@
       <c r="BB31" s="116"/>
       <c r="BC31" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD31" s="312"/>
       <c r="BE31" s="311">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF31" s="312"/>
       <c r="BG31" s="76" t="str">
@@ -33821,15 +33817,15 @@
       <c r="AC35" s="168"/>
       <c r="AD35" s="116"/>
       <c r="AE35" s="116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF35" s="116"/>
       <c r="AG35" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH35" s="116"/>
       <c r="AI35" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ35" s="116"/>
       <c r="AK35" s="116"/>
@@ -33852,12 +33848,12 @@
       <c r="BB35" s="116"/>
       <c r="BC35" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD35" s="312"/>
       <c r="BE35" s="311">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF35" s="312"/>
       <c r="BG35" s="76" t="str">
@@ -33902,15 +33898,15 @@
       <c r="AC36" s="165"/>
       <c r="AD36" s="117"/>
       <c r="AE36" s="117">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF36" s="117"/>
       <c r="AG36" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH36" s="117"/>
       <c r="AI36" s="117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ36" s="117"/>
       <c r="AK36" s="117"/>
@@ -33933,12 +33929,12 @@
       <c r="BB36" s="117"/>
       <c r="BC36" s="309" t="str">
         <f t="shared" si="0"/>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD36" s="310"/>
       <c r="BE36" s="309">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF36" s="310"/>
       <c r="BG36" s="76" t="str">
@@ -33987,11 +33983,11 @@
       </c>
       <c r="AF37" s="116"/>
       <c r="AG37" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH37" s="116"/>
       <c r="AI37" s="116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ37" s="116"/>
       <c r="AK37" s="116"/>
@@ -34014,12 +34010,12 @@
       <c r="BB37" s="116"/>
       <c r="BC37" s="311" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD37" s="312"/>
       <c r="BE37" s="311">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF37" s="312"/>
       <c r="BG37" s="76" t="str">
@@ -40254,8 +40250,8 @@
   </sheetPr>
   <dimension ref="A1:BG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AT17" sqref="AT17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40859,7 +40855,7 @@
       <c r="AC6" s="296"/>
       <c r="AD6" s="58"/>
       <c r="AE6" s="58">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF6" s="58"/>
       <c r="AG6" s="58">
@@ -40890,12 +40886,12 @@
       <c r="BB6" s="58"/>
       <c r="BC6" s="360" t="str">
         <f>IF(B6="","",CONCATENATE(IF(B6="","",COUNTIF(AD6:BB6,"&gt;0"))," / ",BF$1))</f>
-        <v>1 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="BD6" s="361"/>
       <c r="BE6" s="360">
         <f>IF(B6="","",SUM(AD6:BB6))</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="BF6" s="361"/>
       <c r="BG6" s="46" t="str">
@@ -41025,11 +41021,11 @@
       </c>
       <c r="AF8" s="58"/>
       <c r="AG8" s="58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH8" s="58"/>
       <c r="AI8" s="58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ8" s="58"/>
       <c r="AK8" s="58"/>
@@ -41052,12 +41048,12 @@
       <c r="BB8" s="58"/>
       <c r="BC8" s="360" t="str">
         <f t="shared" si="0"/>
-        <v>0 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="BD8" s="361"/>
       <c r="BE8" s="360">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF8" s="361"/>
       <c r="BG8" s="46" t="str">
@@ -41106,11 +41102,11 @@
       </c>
       <c r="AF9" s="59"/>
       <c r="AG9" s="59">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH9" s="59"/>
       <c r="AI9" s="59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ9" s="59"/>
       <c r="AK9" s="59"/>
@@ -41133,12 +41129,12 @@
       <c r="BB9" s="59"/>
       <c r="BC9" s="374" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD9" s="375"/>
       <c r="BE9" s="374">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="BF9" s="375"/>
       <c r="BG9" s="46" t="str">
@@ -41187,11 +41183,11 @@
       </c>
       <c r="AF10" s="58"/>
       <c r="AG10" s="58">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH10" s="58"/>
       <c r="AI10" s="58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ10" s="58"/>
       <c r="AK10" s="58"/>
@@ -41214,12 +41210,12 @@
       <c r="BB10" s="58"/>
       <c r="BC10" s="360" t="str">
         <f t="shared" si="0"/>
-        <v>0 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="BD10" s="361"/>
       <c r="BE10" s="360">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BF10" s="361"/>
       <c r="BG10" s="46" t="str">
@@ -41349,11 +41345,11 @@
       </c>
       <c r="AF12" s="58"/>
       <c r="AG12" s="58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH12" s="58"/>
       <c r="AI12" s="58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ12" s="58"/>
       <c r="AK12" s="58"/>
@@ -41376,12 +41372,12 @@
       <c r="BB12" s="58"/>
       <c r="BC12" s="360" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD12" s="361"/>
       <c r="BE12" s="360">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF12" s="361"/>
       <c r="BG12" s="46" t="str">
@@ -41592,11 +41588,11 @@
       </c>
       <c r="AF15" s="59"/>
       <c r="AG15" s="59">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH15" s="59"/>
       <c r="AI15" s="59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ15" s="59"/>
       <c r="AK15" s="59"/>
@@ -41619,12 +41615,12 @@
       <c r="BB15" s="59"/>
       <c r="BC15" s="374" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD15" s="375"/>
       <c r="BE15" s="374">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="BF15" s="375"/>
       <c r="BG15" s="46" t="str">
@@ -41677,7 +41673,7 @@
       </c>
       <c r="AH16" s="58"/>
       <c r="AI16" s="58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ16" s="58"/>
       <c r="AK16" s="58"/>
@@ -41700,12 +41696,12 @@
       <c r="BB16" s="58"/>
       <c r="BC16" s="360" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD16" s="361"/>
       <c r="BE16" s="360">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF16" s="361"/>
       <c r="BG16" s="46" t="str">
@@ -41758,7 +41754,7 @@
       </c>
       <c r="AH17" s="59"/>
       <c r="AI17" s="59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" s="59"/>
       <c r="AK17" s="59"/>
@@ -41781,12 +41777,12 @@
       <c r="BB17" s="59"/>
       <c r="BC17" s="374" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD17" s="375"/>
       <c r="BE17" s="374">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF17" s="375"/>
       <c r="BG17" s="46" t="str">
@@ -42074,11 +42070,11 @@
       <c r="AC21" s="299"/>
       <c r="AD21" s="59"/>
       <c r="AE21" s="59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AF21" s="59"/>
       <c r="AG21" s="59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH21" s="59"/>
       <c r="AI21" s="59">
@@ -42105,12 +42101,12 @@
       <c r="BB21" s="59"/>
       <c r="BC21" s="374" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD21" s="375"/>
       <c r="BE21" s="374">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BF21" s="375"/>
       <c r="BG21" s="46" t="str">
@@ -42159,11 +42155,11 @@
       </c>
       <c r="AF22" s="58"/>
       <c r="AG22" s="58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH22" s="58"/>
       <c r="AI22" s="58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ22" s="58"/>
       <c r="AK22" s="58"/>
@@ -42186,12 +42182,12 @@
       <c r="BB22" s="58"/>
       <c r="BC22" s="360" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD22" s="361"/>
       <c r="BE22" s="360">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF22" s="361"/>
       <c r="BG22" s="46" t="str">
@@ -42236,11 +42232,11 @@
       <c r="AC23" s="299"/>
       <c r="AD23" s="59"/>
       <c r="AE23" s="59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AF23" s="59"/>
       <c r="AG23" s="59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH23" s="59"/>
       <c r="AI23" s="59">
@@ -42267,12 +42263,12 @@
       <c r="BB23" s="59"/>
       <c r="BC23" s="374" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD23" s="375"/>
       <c r="BE23" s="374">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BF23" s="375"/>
       <c r="BG23" s="46" t="str">
@@ -49896,13 +49892,13 @@
       <c r="AI11" s="396"/>
       <c r="AJ11" s="396" t="str">
         <f>IF(B11="","",EVID_ANV!BC13)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK11" s="396"/>
       <c r="AL11" s="396"/>
       <c r="AM11" s="396">
         <f>IF(B11="","",EVID_ANV!BE13)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN11" s="396"/>
       <c r="AO11" s="396"/>
@@ -49920,12 +49916,12 @@
       <c r="AU11" s="396"/>
       <c r="AV11" s="396">
         <f>TRUNC(AM11+AS11,1)</f>
-        <v>60.6</v>
+        <v>85.6</v>
       </c>
       <c r="AW11" s="396"/>
       <c r="AX11" s="394">
         <f>IF(B11="","",IF(AND(TRUNC(AV11/10,1)&gt;0,TRUNC(AV11/10,1)&lt;6),5, IF(  TRUNC(AV11/10,1)&gt;=6,TRUNC(AV11/10,1),IF(AD11&gt;=1,5,  "")) ))</f>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AY11" s="395"/>
       <c r="AZ11" s="161"/>
@@ -49988,13 +49984,13 @@
       <c r="AI12" s="160"/>
       <c r="AJ12" s="159" t="str">
         <f>IF(B12="","",EVID_ANV!BC14)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK12" s="391"/>
       <c r="AL12" s="160"/>
       <c r="AM12" s="159">
         <f>IF(B12="","",EVID_ANV!BE14)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN12" s="391"/>
       <c r="AO12" s="160"/>
@@ -50012,12 +50008,12 @@
       <c r="AU12" s="160"/>
       <c r="AV12" s="159">
         <f>TRUNC(AM12+AS12,1)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW12" s="160"/>
       <c r="AX12" s="392">
         <f t="shared" ref="AX12:AX35" si="0">IF(B12="","",IF(AND(TRUNC(AV12/10,1)&gt;0,TRUNC(AV12/10,1)&lt;6),5, IF(  TRUNC(AV12/10,1)&gt;=6,TRUNC(AV12/10,1),IF(AD12&gt;=1,5,  ""))    ))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY12" s="393"/>
       <c r="AZ12" s="159"/>
@@ -50081,13 +50077,13 @@
       <c r="AI13" s="162"/>
       <c r="AJ13" s="161" t="str">
         <f>IF(B13="","",EVID_ANV!BC15)</f>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK13" s="390"/>
       <c r="AL13" s="162"/>
       <c r="AM13" s="161">
         <f>IF(B13="","",EVID_ANV!BE15)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN13" s="390"/>
       <c r="AO13" s="162"/>
@@ -50105,12 +50101,12 @@
       <c r="AU13" s="162"/>
       <c r="AV13" s="161">
         <f t="shared" ref="AV13:AV18" si="2">TRUNC(AM13+AS13,1)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AW13" s="162"/>
       <c r="AX13" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY13" s="395"/>
       <c r="AZ13" s="161"/>
@@ -50449,13 +50445,13 @@
       <c r="AI17" s="162"/>
       <c r="AJ17" s="161" t="str">
         <f>IF(B17="","",EVID_ANV!BC19)</f>
-        <v>0 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="AK17" s="390"/>
       <c r="AL17" s="162"/>
       <c r="AM17" s="161">
         <f>IF(B17="","",EVID_ANV!BE19)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AN17" s="390"/>
       <c r="AO17" s="162"/>
@@ -50473,12 +50469,12 @@
       <c r="AU17" s="162"/>
       <c r="AV17" s="161">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="AW17" s="162"/>
       <c r="AX17" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="AY17" s="395"/>
       <c r="AZ17" s="161"/>
@@ -50633,13 +50629,13 @@
       <c r="AI19" s="162"/>
       <c r="AJ19" s="161" t="str">
         <f>IF(B19="","",EVID_ANV!BC21)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK19" s="390"/>
       <c r="AL19" s="162"/>
       <c r="AM19" s="161">
         <f>IF(B19="","",EVID_ANV!BE21)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN19" s="390"/>
       <c r="AO19" s="162"/>
@@ -50657,12 +50653,12 @@
       <c r="AU19" s="162"/>
       <c r="AV19" s="161">
         <f t="shared" ref="AV19:AV35" si="3">TRUNC(AM19+AS19,1)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW19" s="162"/>
       <c r="AX19" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY19" s="395"/>
       <c r="AZ19" s="161"/>
@@ -50725,13 +50721,13 @@
       <c r="AI20" s="160"/>
       <c r="AJ20" s="159" t="str">
         <f>IF(B20="","",EVID_ANV!BC22)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK20" s="391"/>
       <c r="AL20" s="160"/>
       <c r="AM20" s="159">
         <f>IF(B20="","",EVID_ANV!BE22)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN20" s="391"/>
       <c r="AO20" s="160"/>
@@ -50749,12 +50745,12 @@
       <c r="AU20" s="160"/>
       <c r="AV20" s="159">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW20" s="160"/>
       <c r="AX20" s="392">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY20" s="393"/>
       <c r="AZ20" s="159"/>
@@ -50817,13 +50813,13 @@
       <c r="AI21" s="162"/>
       <c r="AJ21" s="161" t="str">
         <f>IF(B21="","",EVID_ANV!BC23)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK21" s="390"/>
       <c r="AL21" s="162"/>
       <c r="AM21" s="161">
         <f>IF(B21="","",EVID_ANV!BE23)</f>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="AN21" s="390"/>
       <c r="AO21" s="162"/>
@@ -50841,12 +50837,12 @@
       <c r="AU21" s="162"/>
       <c r="AV21" s="161">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="AW21" s="162"/>
       <c r="AX21" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="AY21" s="395"/>
       <c r="AZ21" s="161"/>
@@ -50909,13 +50905,13 @@
       <c r="AI22" s="160"/>
       <c r="AJ22" s="159" t="str">
         <f>IF(B22="","",EVID_ANV!BC24)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK22" s="391"/>
       <c r="AL22" s="160"/>
       <c r="AM22" s="159">
         <f>IF(B22="","",EVID_ANV!BE24)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN22" s="391"/>
       <c r="AO22" s="160"/>
@@ -50933,12 +50929,12 @@
       <c r="AU22" s="160"/>
       <c r="AV22" s="159">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW22" s="160"/>
       <c r="AX22" s="392">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY22" s="393"/>
       <c r="AZ22" s="159"/>
@@ -51001,13 +50997,13 @@
       <c r="AI23" s="162"/>
       <c r="AJ23" s="161" t="str">
         <f>IF(B23="","",EVID_ANV!BC25)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK23" s="390"/>
       <c r="AL23" s="162"/>
       <c r="AM23" s="161">
         <f>IF(B23="","",EVID_ANV!BE25)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN23" s="390"/>
       <c r="AO23" s="162"/>
@@ -51025,12 +51021,12 @@
       <c r="AU23" s="162"/>
       <c r="AV23" s="161">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW23" s="162"/>
       <c r="AX23" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY23" s="395"/>
       <c r="AZ23" s="161"/>
@@ -51093,13 +51089,13 @@
       <c r="AI24" s="160"/>
       <c r="AJ24" s="159" t="str">
         <f>IF(B24="","",EVID_ANV!BC26)</f>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK24" s="391"/>
       <c r="AL24" s="160"/>
       <c r="AM24" s="159">
         <f>IF(B24="","",EVID_ANV!BE26)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN24" s="391"/>
       <c r="AO24" s="160"/>
@@ -51117,12 +51113,12 @@
       <c r="AU24" s="160"/>
       <c r="AV24" s="159">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AW24" s="160"/>
       <c r="AX24" s="392">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY24" s="393"/>
       <c r="AZ24" s="159"/>
@@ -51185,13 +51181,13 @@
       <c r="AI25" s="162"/>
       <c r="AJ25" s="161" t="str">
         <f>IF(B25="","",EVID_ANV!BC27)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK25" s="390"/>
       <c r="AL25" s="162"/>
       <c r="AM25" s="161">
         <f>IF(B25="","",EVID_ANV!BE27)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN25" s="390"/>
       <c r="AO25" s="162"/>
@@ -51209,12 +51205,12 @@
       <c r="AU25" s="162"/>
       <c r="AV25" s="161">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW25" s="162"/>
       <c r="AX25" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY25" s="395"/>
       <c r="AZ25" s="161"/>
@@ -51277,13 +51273,13 @@
       <c r="AI26" s="160"/>
       <c r="AJ26" s="159" t="str">
         <f>IF(B26="","",EVID_ANV!BC28)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK26" s="391"/>
       <c r="AL26" s="160"/>
       <c r="AM26" s="159">
         <f>IF(B26="","",EVID_ANV!BE28)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AN26" s="391"/>
       <c r="AO26" s="160"/>
@@ -51301,12 +51297,12 @@
       <c r="AU26" s="160"/>
       <c r="AV26" s="159">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AW26" s="160"/>
       <c r="AX26" s="392">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY26" s="393"/>
       <c r="AZ26" s="159"/>
@@ -51369,13 +51365,13 @@
       <c r="AI27" s="162"/>
       <c r="AJ27" s="161" t="str">
         <f>IF(B27="","",EVID_ANV!BC29)</f>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK27" s="390"/>
       <c r="AL27" s="162"/>
       <c r="AM27" s="161">
         <f>IF(B27="","",EVID_ANV!BE29)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN27" s="390"/>
       <c r="AO27" s="162"/>
@@ -51393,12 +51389,12 @@
       <c r="AU27" s="162"/>
       <c r="AV27" s="161">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AW27" s="162"/>
       <c r="AX27" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY27" s="395"/>
       <c r="AZ27" s="161"/>
@@ -51461,13 +51457,13 @@
       <c r="AI28" s="160"/>
       <c r="AJ28" s="159" t="str">
         <f>IF(B28="","",EVID_ANV!BC30)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK28" s="391"/>
       <c r="AL28" s="160"/>
       <c r="AM28" s="159">
         <f>IF(B28="","",EVID_ANV!BE30)</f>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="AN28" s="391"/>
       <c r="AO28" s="160"/>
@@ -51485,12 +51481,12 @@
       <c r="AU28" s="160"/>
       <c r="AV28" s="159">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="AW28" s="160"/>
       <c r="AX28" s="392">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="AY28" s="393"/>
       <c r="AZ28" s="159"/>
@@ -51553,13 +51549,13 @@
       <c r="AI29" s="162"/>
       <c r="AJ29" s="161" t="str">
         <f>IF(B29="","",EVID_ANV!BC31)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK29" s="390"/>
       <c r="AL29" s="162"/>
       <c r="AM29" s="161">
         <f>IF(B29="","",EVID_ANV!BE31)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN29" s="390"/>
       <c r="AO29" s="162"/>
@@ -51577,12 +51573,12 @@
       <c r="AU29" s="162"/>
       <c r="AV29" s="161">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW29" s="162"/>
       <c r="AX29" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY29" s="395"/>
       <c r="AZ29" s="161"/>
@@ -51921,13 +51917,13 @@
       <c r="AI33" s="162"/>
       <c r="AJ33" s="161" t="str">
         <f>IF(B33="","",EVID_ANV!BC35)</f>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK33" s="390"/>
       <c r="AL33" s="162"/>
       <c r="AM33" s="161">
         <f>IF(B33="","",EVID_ANV!BE35)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN33" s="390"/>
       <c r="AO33" s="162"/>
@@ -51945,12 +51941,12 @@
       <c r="AU33" s="162"/>
       <c r="AV33" s="161">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AW33" s="162"/>
       <c r="AX33" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY33" s="395"/>
       <c r="AZ33" s="161"/>
@@ -52013,13 +52009,13 @@
       <c r="AI34" s="160"/>
       <c r="AJ34" s="159" t="str">
         <f>IF(B34="","",EVID_ANV!BC36)</f>
-        <v>0 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK34" s="391"/>
       <c r="AL34" s="160"/>
       <c r="AM34" s="159">
         <f>IF(B34="","",EVID_ANV!BE36)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN34" s="391"/>
       <c r="AO34" s="160"/>
@@ -52037,12 +52033,12 @@
       <c r="AU34" s="160"/>
       <c r="AV34" s="159">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AW34" s="160"/>
       <c r="AX34" s="392">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY34" s="393"/>
       <c r="AZ34" s="159"/>
@@ -52105,13 +52101,13 @@
       <c r="AI35" s="162"/>
       <c r="AJ35" s="161" t="str">
         <f>IF(B35="","",EVID_ANV!BC37)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK35" s="390"/>
       <c r="AL35" s="162"/>
       <c r="AM35" s="161">
         <f>IF(B35="","",EVID_ANV!BE37)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN35" s="390"/>
       <c r="AO35" s="162"/>
@@ -52129,12 +52125,12 @@
       <c r="AU35" s="162"/>
       <c r="AV35" s="161">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW35" s="162"/>
       <c r="AX35" s="394">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY35" s="395"/>
       <c r="AZ35" s="161"/>
@@ -59337,7 +59333,7 @@
   <dimension ref="A1:BG104"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1"/>
+      <selection activeCell="AD13" sqref="AD13:AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -59626,13 +59622,13 @@
       <c r="AI4" s="271"/>
       <c r="AJ4" s="271" t="str">
         <f>IF(B4="","",EVID_REV!BC6)</f>
-        <v>1 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="AK4" s="271"/>
       <c r="AL4" s="271"/>
       <c r="AM4" s="271">
         <f>IF(B4="","",EVID_REV!BE6)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AN4" s="271"/>
       <c r="AO4" s="271"/>
@@ -59650,12 +59646,12 @@
       <c r="AU4" s="271"/>
       <c r="AV4" s="271">
         <f>IF(B4="","",TRUNC(SUM(AM4,AS4),1))</f>
-        <v>45.7</v>
+        <v>65.7</v>
       </c>
       <c r="AW4" s="271"/>
       <c r="AX4" s="473">
         <f>IF(B4="","",IF(AND(TRUNC(AV4/10,1)&gt;0,TRUNC(AV4/10,1)&lt;6),5, IF(  TRUNC(AV4/10,1)&gt;=6,TRUNC(AV4/10,1),IF(AD4&gt;=1,5,  ""))  ))</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" s="469"/>
       <c r="AZ4" s="269"/>
@@ -59810,13 +59806,13 @@
       <c r="AI6" s="270"/>
       <c r="AJ6" s="269" t="str">
         <f>IF(B6="","",EVID_REV!BC8)</f>
-        <v>0 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="AK6" s="438"/>
       <c r="AL6" s="270"/>
       <c r="AM6" s="269">
         <f>IF(B6="","",EVID_REV!BE8)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN6" s="438"/>
       <c r="AO6" s="270"/>
@@ -59834,7 +59830,7 @@
       <c r="AU6" s="270"/>
       <c r="AV6" s="269">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW6" s="270"/>
       <c r="AX6" s="468">
@@ -59902,13 +59898,13 @@
       <c r="AI7" s="268"/>
       <c r="AJ7" s="267" t="str">
         <f>IF(B7="","",EVID_REV!BC9)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK7" s="470"/>
       <c r="AL7" s="268"/>
       <c r="AM7" s="267">
         <f>IF(B7="","",EVID_REV!BE9)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AN7" s="470"/>
       <c r="AO7" s="268"/>
@@ -59926,12 +59922,12 @@
       <c r="AU7" s="268"/>
       <c r="AV7" s="267">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AW7" s="268"/>
       <c r="AX7" s="471">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY7" s="472"/>
       <c r="AZ7" s="267"/>
@@ -59994,13 +59990,13 @@
       <c r="AI8" s="270"/>
       <c r="AJ8" s="269" t="str">
         <f>IF(B8="","",EVID_REV!BC10)</f>
-        <v>0 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="AK8" s="438"/>
       <c r="AL8" s="270"/>
       <c r="AM8" s="269">
         <f>IF(B8="","",EVID_REV!BE10)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AN8" s="438"/>
       <c r="AO8" s="270"/>
@@ -60018,7 +60014,7 @@
       <c r="AU8" s="270"/>
       <c r="AV8" s="269">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AW8" s="270"/>
       <c r="AX8" s="468">
@@ -60178,13 +60174,13 @@
       <c r="AI10" s="270"/>
       <c r="AJ10" s="269" t="str">
         <f>IF(B10="","",EVID_REV!BC12)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK10" s="438"/>
       <c r="AL10" s="270"/>
       <c r="AM10" s="269">
         <f>IF(B10="","",EVID_REV!BE12)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN10" s="438"/>
       <c r="AO10" s="270"/>
@@ -60202,12 +60198,12 @@
       <c r="AU10" s="270"/>
       <c r="AV10" s="269">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW10" s="270"/>
       <c r="AX10" s="468">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY10" s="469"/>
       <c r="AZ10" s="269"/>
@@ -60454,13 +60450,13 @@
       <c r="AI13" s="268"/>
       <c r="AJ13" s="267" t="str">
         <f>IF(B13="","",EVID_REV!BC15)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK13" s="470"/>
       <c r="AL13" s="268"/>
       <c r="AM13" s="267">
         <f>IF(B13="","",EVID_REV!BE15)</f>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="AN13" s="470"/>
       <c r="AO13" s="268"/>
@@ -60478,12 +60474,12 @@
       <c r="AU13" s="268"/>
       <c r="AV13" s="267">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="AW13" s="268"/>
       <c r="AX13" s="471">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="AY13" s="472"/>
       <c r="AZ13" s="267"/>
@@ -60546,13 +60542,13 @@
       <c r="AI14" s="270"/>
       <c r="AJ14" s="269" t="str">
         <f>IF(B14="","",EVID_REV!BC16)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK14" s="438"/>
       <c r="AL14" s="270"/>
       <c r="AM14" s="269">
         <f>IF(B14="","",EVID_REV!BE16)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN14" s="438"/>
       <c r="AO14" s="270"/>
@@ -60570,12 +60566,12 @@
       <c r="AU14" s="270"/>
       <c r="AV14" s="269">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW14" s="270"/>
       <c r="AX14" s="468">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY14" s="469"/>
       <c r="AZ14" s="269"/>
@@ -60638,13 +60634,13 @@
       <c r="AI15" s="268"/>
       <c r="AJ15" s="267" t="str">
         <f>IF(B15="","",EVID_REV!BC17)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK15" s="470"/>
       <c r="AL15" s="268"/>
       <c r="AM15" s="267">
         <f>IF(B15="","",EVID_REV!BE17)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN15" s="470"/>
       <c r="AO15" s="268"/>
@@ -60662,12 +60658,12 @@
       <c r="AU15" s="268"/>
       <c r="AV15" s="267">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW15" s="268"/>
       <c r="AX15" s="471">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY15" s="472"/>
       <c r="AZ15" s="267"/>
@@ -61006,13 +61002,13 @@
       <c r="AI19" s="268"/>
       <c r="AJ19" s="267" t="str">
         <f>IF(B19="","",EVID_REV!BC21)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK19" s="470"/>
       <c r="AL19" s="268"/>
       <c r="AM19" s="267">
         <f>IF(B19="","",EVID_REV!BE21)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AN19" s="470"/>
       <c r="AO19" s="268"/>
@@ -61030,12 +61026,12 @@
       <c r="AU19" s="268"/>
       <c r="AV19" s="267">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AW19" s="268"/>
       <c r="AX19" s="471">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY19" s="472"/>
       <c r="AZ19" s="267"/>
@@ -61098,13 +61094,13 @@
       <c r="AI20" s="270"/>
       <c r="AJ20" s="269" t="str">
         <f>IF(B20="","",EVID_REV!BC22)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK20" s="438"/>
       <c r="AL20" s="270"/>
       <c r="AM20" s="269">
         <f>IF(B20="","",EVID_REV!BE22)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN20" s="438"/>
       <c r="AO20" s="270"/>
@@ -61122,12 +61118,12 @@
       <c r="AU20" s="270"/>
       <c r="AV20" s="269">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW20" s="270"/>
       <c r="AX20" s="468">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY20" s="469"/>
       <c r="AZ20" s="269"/>
@@ -61190,13 +61186,13 @@
       <c r="AI21" s="268"/>
       <c r="AJ21" s="267" t="str">
         <f>IF(B21="","",EVID_REV!BC23)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK21" s="470"/>
       <c r="AL21" s="268"/>
       <c r="AM21" s="267">
         <f>IF(B21="","",EVID_REV!BE23)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AN21" s="470"/>
       <c r="AO21" s="268"/>
@@ -61214,12 +61210,12 @@
       <c r="AU21" s="268"/>
       <c r="AV21" s="267">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AW21" s="268"/>
       <c r="AX21" s="471">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY21" s="472"/>
       <c r="AZ21" s="267"/>
@@ -62094,7 +62090,7 @@
       <c r="H32" s="458"/>
       <c r="I32" s="456">
         <f>COUNTIFS(CALIF_ANV!AX11:AX35,"&gt;=6",CALIF_ANV!AX11:AX35,"&lt;=10")+COUNTIFS(AX4:AY28,"&gt;=6",AX4:AY28,"&lt;=10")</f>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J32" s="457"/>
       <c r="K32" s="457"/>
@@ -62102,7 +62098,7 @@
       <c r="M32" s="458"/>
       <c r="N32" s="456">
         <f>COUNTIFS(CALIF_ANV!AX11:AX35,"&lt;6")+COUNTIFS(AX4:AX28,"&lt;6")</f>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="O32" s="457"/>
       <c r="P32" s="457"/>
@@ -62162,7 +62158,7 @@
       <c r="H33" s="448"/>
       <c r="I33" s="449" t="str">
         <f>CONCATENATE(BF33," %")</f>
-        <v>18.6 %</v>
+        <v>79 %</v>
       </c>
       <c r="J33" s="450"/>
       <c r="K33" s="450"/>
@@ -62170,7 +62166,7 @@
       <c r="M33" s="451"/>
       <c r="N33" s="449" t="str">
         <f>CONCATENATE(BG33," %")</f>
-        <v>81.3 %</v>
+        <v>20.9 %</v>
       </c>
       <c r="O33" s="450"/>
       <c r="P33" s="450"/>
@@ -62218,11 +62214,11 @@
       <c r="BE33" s="445"/>
       <c r="BF33">
         <f>TRUNC(I$32/(A32-S32)*100,1)</f>
-        <v>18.600000000000001</v>
+        <v>79</v>
       </c>
       <c r="BG33">
         <f>TRUNC(N$32/(A32-S32)*100,1)</f>
-        <v>81.3</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.2">
